--- a/src/files/en/general/template-grille-audit-simplifie.xlsx
+++ b/src/files/en/general/template-grille-audit-simplifie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sip\accessibilite.public.lu\src\files\en\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB9D774-8475-435E-B8AD-B2055531C009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E2FE83-90A0-4020-8050-55BD97C2AF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30870" yWindow="390" windowWidth="24885" windowHeight="14820" tabRatio="861" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-8160" windowWidth="38620" windowHeight="21360" tabRatio="861" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="2" r:id="rId1"/>
@@ -448,9 +448,6 @@
     <t>Does each frame have a frame title?</t>
   </si>
   <si>
-    <t>In every web page, the information must not be provided by colour alone. Is this rule respected?</t>
-  </si>
-  <si>
     <t>On each web page, is the contrast between the colour of the text and the colour of its background sufficiently high (excluding special cases)?</t>
   </si>
   <si>
@@ -458,12 +455,6 @@
   </si>
   <si>
     <t>For each pre-recorded time-based media with a synchronised transcript or audio description, are these relevant (excluding special cases)?</t>
-  </si>
-  <si>
-    <t>Does each pre-recorded synchronised time-based media have, if necessary, synchronised subtitles (excluding special cases)?</t>
-  </si>
-  <si>
-    <t>For each pre-recorded synchronised time-based media with synchronised subtitles, are these subtitles relevant?</t>
   </si>
   <si>
     <t>Does each non-time-based media have, if necessary, an alternative (excluding special cases)?</t>
@@ -487,15 +478,6 @@
     <t>Is every link explicit (except in special cases)?</t>
   </si>
   <si>
-    <t>On each web page, does each link have a title?</t>
-  </si>
-  <si>
-    <t>Is each script controllable by keyboard and any pointing device (excluding special cases)?</t>
-  </si>
-  <si>
-    <t>Is each web page defined by a document type?</t>
-  </si>
-  <si>
     <t>For each web page, is the generated source code valid for the specified document type?</t>
   </si>
   <si>
@@ -515,9 +497,6 @@
   </si>
   <si>
     <t>On each web page, is the language code for each language change valid and relevant?</t>
-  </si>
-  <si>
-    <t>On each web page, is the information structured by the appropriate use of titles?</t>
   </si>
   <si>
     <t>On each web page, is the document structure consistent (excluding special cases)?</t>
@@ -544,28 +523,7 @@
     <t>Is each label associated with a form field relevant (excluding special cases)?</t>
   </si>
   <si>
-    <t>In each form, are the fields of same kind grouped together, if necessary?</t>
-  </si>
-  <si>
-    <t>In each form, does each group of fields of same kind have a legend?</t>
-  </si>
-  <si>
-    <t>In each form, is each legend associated with a group of fields of same kind relevant?</t>
-  </si>
-  <si>
-    <t>In each form, is the title of each button relevant (excluding special cases)?</t>
-  </si>
-  <si>
-    <t>In each form, is the input control used appropriately (excluding special cases)?</t>
-  </si>
-  <si>
-    <t>Can content grouping zones present in several web pages header, main navigation, main content, footer and search engine) be reached or avoided?</t>
-  </si>
-  <si>
     <t>On each web page, is there a bypass or skip link to the main content region (excluding special cases)?</t>
-  </si>
-  <si>
-    <t>On each web page, is the tab order consistent?</t>
   </si>
   <si>
     <t>On each web page, navigation must not contain any keyboard traps. Is this rule respected?</t>
@@ -575,12 +533,6 @@
   </si>
   <si>
     <t>For each web page, does the user have control over each time limit for modifying the content (excluding special cases)?</t>
-  </si>
-  <si>
-    <t>On each web page, are sudden changes in brightness or flashing effects used correctly?</t>
-  </si>
-  <si>
-    <t>On each web page, is every moving or flashing content controllable by the user?</t>
   </si>
   <si>
     <t>STRUCTURE</t>
@@ -602,6 +554,54 @@
   </si>
   <si>
     <t>Comments in the event of derogation</t>
+  </si>
+  <si>
+    <t>On each web page, the information must not be provided by colour alone. Is this rule respected?</t>
+  </si>
+  <si>
+    <t>Does each pre-recorded synchronised time-based media have, if necessary, synchronised captions (excluding special cases)?</t>
+  </si>
+  <si>
+    <t>For each pre-recorded synchronised time-based media with synchronised subtitles, are these captions relevant?</t>
+  </si>
+  <si>
+    <t>On each web page, does each link have an accessible name?</t>
+  </si>
+  <si>
+    <t>Is each script accessible and operable by keyboard and any pointing device (excluding special cases)?</t>
+  </si>
+  <si>
+    <t>Has each web page a defined document type?</t>
+  </si>
+  <si>
+    <t>On each web page, is the information structured by the appropriate use of headings?</t>
+  </si>
+  <si>
+    <t>In each form, are the related form controls grouped together, if necessary?</t>
+  </si>
+  <si>
+    <t>In each form, does each group of related form controls have a legend?</t>
+  </si>
+  <si>
+    <t>In each form, is each legend associated with a group of related form controls relevant?</t>
+  </si>
+  <si>
+    <t>In each form, is the label of each button relevant (excluding special cases)?</t>
+  </si>
+  <si>
+    <t>In each form, is the error management used appropriately (excluding special cases)?</t>
+  </si>
+  <si>
+    <t>Can content grouping regions present in several web pages header, main navigation, main content, footer and search engine) be reached or avoided?</t>
+  </si>
+  <si>
+    <t>On each web page, is the navigation sequence consistent?</t>
+  </si>
+  <si>
+    <t>On each web page, are sudden changes in brightness or blinking used correctly?</t>
+  </si>
+  <si>
+    <t>On each web page, is every moving or blinking content controllable by the user?</t>
   </si>
 </sst>
 </file>
@@ -1504,17 +1504,11 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="21" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="12" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1529,19 +1523,19 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1550,11 +1544,17 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="21" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -2197,32 +2197,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="86" t="s">
@@ -2242,7 +2242,7 @@
       <c r="B7" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="91" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       <c r="B8" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="91" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       <c r="B9" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="91" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7060,40 +7060,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:13" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="D3" s="92" t="s">
+      <c r="B3" s="93"/>
+      <c r="D3" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="92"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="92" t="s">
+      <c r="G3" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -7568,8 +7568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BL55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:C55"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7584,12 +7584,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="str">
+      <c r="A1" s="98" t="str">
         <f>Sample!A1</f>
         <v>SIMPLIFIED AUDIT – ASSESSMENT GRID</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="100"/>
     </row>
     <row r="2" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
@@ -7603,7 +7603,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="94" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="57" t="s">
@@ -7615,7 +7615,7 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="96"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="57" t="s">
         <v>7</v>
       </c>
@@ -7625,7 +7625,7 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="96"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="57" t="s">
         <v>8</v>
       </c>
@@ -7635,7 +7635,7 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="96"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="57" t="s">
         <v>9</v>
       </c>
@@ -7645,7 +7645,7 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="96"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="57" t="s">
         <v>10</v>
       </c>
@@ -7655,7 +7655,7 @@
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="96"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="57" t="s">
         <v>11</v>
       </c>
@@ -7665,7 +7665,7 @@
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="96"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="57" t="s">
         <v>12</v>
       </c>
@@ -7687,150 +7687,150 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="94" t="s">
         <v>118</v>
       </c>
       <c r="B11" s="57" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="96"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="57" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="94" t="s">
         <v>119</v>
       </c>
       <c r="B13" s="57" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="96"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="57" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="96"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="57" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="96"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="57" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A17" s="96"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="57" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A18" s="96"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="57" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A19" s="96"/>
+      <c r="A19" s="94"/>
       <c r="B19" s="57" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A20" s="96"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="57" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="94" t="s">
         <v>120</v>
       </c>
       <c r="B21" s="57" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:64" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="96"/>
+      <c r="A22" s="94"/>
       <c r="B22" s="57" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="94" t="s">
         <v>121</v>
       </c>
       <c r="B23" s="57" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A24" s="96"/>
+      <c r="A24" s="94"/>
       <c r="B24" s="57" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="D24" s="6"/>
     </row>
@@ -7842,7 +7842,7 @@
         <v>33</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -7852,7 +7852,7 @@
         <v>8.1</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="5"/>
@@ -7916,14 +7916,14 @@
       <c r="BL26" s="5"/>
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="97" t="s">
+      <c r="A27" s="95" t="s">
         <v>122</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>85</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="5"/>
@@ -7987,12 +7987,12 @@
       <c r="BL27" s="5"/>
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="98"/>
+      <c r="A28" s="96"/>
       <c r="B28" s="31" t="s">
         <v>86</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="5"/>
@@ -8056,287 +8056,292 @@
       <c r="BL28" s="5"/>
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A29" s="98"/>
+      <c r="A29" s="96"/>
       <c r="B29" s="57" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A30" s="98"/>
+      <c r="A30" s="96"/>
       <c r="B30" s="57" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A31" s="98"/>
+      <c r="A31" s="96"/>
       <c r="B31" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A32" s="98"/>
+      <c r="A32" s="96"/>
       <c r="B32" s="57" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="99"/>
+      <c r="A33" s="97"/>
       <c r="B33" s="57" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="96" t="s">
+      <c r="A34" s="94" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="96"/>
+      <c r="A35" s="94"/>
       <c r="B35" s="57" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="96" t="s">
+      <c r="A36" s="94" t="s">
         <v>123</v>
       </c>
       <c r="B36" s="57" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="96"/>
+      <c r="A37" s="94"/>
       <c r="B37" s="57" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="96"/>
+      <c r="A38" s="94"/>
       <c r="B38" s="57" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="96"/>
+      <c r="A39" s="94"/>
       <c r="B39" s="57" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="96"/>
+      <c r="A40" s="94"/>
       <c r="B40" s="57" t="s">
         <v>48</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="96" t="s">
+      <c r="A41" s="94" t="s">
         <v>124</v>
       </c>
       <c r="B41" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="96"/>
+      <c r="A42" s="94"/>
       <c r="B42" s="57" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="96"/>
+      <c r="A43" s="94"/>
       <c r="B43" s="57" t="s">
         <v>52</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="96"/>
+      <c r="A44" s="94"/>
       <c r="B44" s="57" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="96"/>
+      <c r="A45" s="94"/>
       <c r="B45" s="57" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="96"/>
+      <c r="A46" s="94"/>
       <c r="B46" s="57" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="96"/>
+      <c r="A47" s="94"/>
       <c r="B47" s="57" t="s">
         <v>56</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="96" t="s">
+      <c r="A48" s="94" t="s">
         <v>57</v>
       </c>
       <c r="B48" s="57" t="s">
         <v>58</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="96"/>
+      <c r="A49" s="94"/>
       <c r="B49" s="57" t="s">
         <v>59</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="96"/>
+      <c r="A50" s="94"/>
       <c r="B50" s="57" t="s">
         <v>60</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="96"/>
+      <c r="A51" s="94"/>
       <c r="B51" s="57" t="s">
         <v>61</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="96"/>
+      <c r="A52" s="94"/>
       <c r="B52" s="57" t="s">
         <v>62</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D52" s="6"/>
     </row>
     <row r="53" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A53" s="96" t="s">
+      <c r="A53" s="94" t="s">
         <v>63</v>
       </c>
       <c r="B53" s="57" t="s">
         <v>64</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D53" s="6"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="96"/>
+      <c r="A54" s="94"/>
       <c r="B54" s="57" t="s">
         <v>65</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D54" s="6"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="96"/>
+      <c r="A55" s="94"/>
       <c r="B55" s="57" t="s">
         <v>66</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D55" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A36:A40"/>
     <mergeCell ref="A41:A47"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="A53:A55"/>
@@ -8344,11 +8349,6 @@
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="A36:A40"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.53263888888888899" bottom="0.39374999999999999" header="0.39374999999999999" footer="0.39374999999999999"/>
   <pageSetup scale="74" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8381,85 +8381,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="92" t="str">
+      <c r="A1" s="93" t="str">
         <f>Sample!A1</f>
         <v>SIMPLIFIED AUDIT – ASSESSMENT GRID</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="102" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="101" t="s">
+      <c r="F3" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="101" t="s">
+      <c r="G3" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="101" t="s">
+      <c r="H3" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="101" t="s">
+      <c r="I3" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="101" t="s">
+      <c r="J3" s="102" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="101" t="s">
-        <v>178</v>
-      </c>
-      <c r="L3" s="101" t="s">
+      <c r="K3" s="102" t="s">
+        <v>162</v>
+      </c>
+      <c r="L3" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="M3" s="101" t="s">
+      <c r="M3" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="N3" s="101" t="s">
+      <c r="N3" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="101" t="s">
+      <c r="O3" s="102" t="s">
         <v>63</v>
       </c>
       <c r="P3" s="33"/>
@@ -8468,40 +8468,40 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="18"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
       <c r="P4" s="33"/>
       <c r="Q4" s="33"/>
       <c r="R4" s="33"/>
     </row>
     <row r="5" spans="1:18" ht="59.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
       <c r="P5" s="33"/>
       <c r="Q5" s="33"/>
       <c r="R5" s="33"/>
@@ -8865,7 +8865,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" s="15" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
@@ -8880,7 +8880,7 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
@@ -9145,28 +9145,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1023" x14ac:dyDescent="0.35">
-      <c r="A1" s="92" t="str">
+      <c r="A1" s="93" t="str">
         <f>Sample!A1</f>
         <v>SIMPLIFIED AUDIT – ASSESSMENT GRID</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
     </row>
     <row r="2" spans="1:1023" x14ac:dyDescent="0.35">
-      <c r="A2" s="107" t="str">
+      <c r="A2" s="108" t="str">
         <f>CONCATENATE(Sample!B7," : ",Sample!C7)</f>
         <v>Page title 1 : https:///www.example.com/1.html</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
     </row>
     <row r="3" spans="1:1023" ht="57" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
@@ -9179,16 +9179,16 @@
         <v>108</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -9249,7 +9249,7 @@
       <c r="BL3" s="2"/>
     </row>
     <row r="4" spans="1:1023" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="104" t="str">
+      <c r="A4" s="106" t="str">
         <f>Criteria!$A$3</f>
         <v>IMAGES</v>
       </c>
@@ -9328,7 +9328,7 @@
       <c r="BL4" s="2"/>
     </row>
     <row r="5" spans="1:1023" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="104"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="46" t="str">
         <f>Criteria!B4</f>
         <v>1.2</v>
@@ -9410,7 +9410,7 @@
       <c r="AMI5" s="14"/>
     </row>
     <row r="6" spans="1:1023" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="104"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="46" t="str">
         <f>Criteria!B5</f>
         <v>1.3</v>
@@ -9485,8 +9485,8 @@
       <c r="BK6" s="2"/>
       <c r="BL6" s="2"/>
     </row>
-    <row r="7" spans="1:1023" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="104"/>
+    <row r="7" spans="1:1023" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="106"/>
       <c r="B7" s="46" t="str">
         <f>Criteria!B6</f>
         <v>1.4</v>
@@ -9505,7 +9505,7 @@
       <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:1023" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="104"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="46" t="str">
         <f>Criteria!B7</f>
         <v>1.5</v>
@@ -9524,7 +9524,7 @@
       <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:1023" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="104"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="46" t="str">
         <f>Criteria!B8</f>
         <v>1.6</v>
@@ -9542,8 +9542,8 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:1023" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="96"/>
+    <row r="10" spans="1:1023" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="94"/>
       <c r="B10" s="74" t="str">
         <f>Criteria!B9</f>
         <v>1.7</v>
@@ -9561,7 +9561,7 @@
       <c r="F10" s="75"/>
       <c r="G10" s="75"/>
     </row>
-    <row r="11" spans="1:1023" ht="41" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1023" ht="42.5" x14ac:dyDescent="0.35">
       <c r="A11" s="78" t="str">
         <f>Criteria!$A$10</f>
         <v>FRAMES</v>
@@ -9583,8 +9583,8 @@
       <c r="F11" s="80"/>
       <c r="G11" s="80"/>
     </row>
-    <row r="12" spans="1:1023" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="98" t="str">
+    <row r="12" spans="1:1023" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="96" t="str">
         <f>Criteria!$A$11</f>
         <v>COLOURS</v>
       </c>
@@ -9594,7 +9594,7 @@
       </c>
       <c r="C12" s="77" t="str">
         <f>Criteria!C11</f>
-        <v>In every web page, the information must not be provided by colour alone. Is this rule respected?</v>
+        <v>On each web page, the information must not be provided by colour alone. Is this rule respected?</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>73</v>
@@ -9606,7 +9606,7 @@
       <c r="G12" s="77"/>
     </row>
     <row r="13" spans="1:1023" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="96"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="74" t="str">
         <f>Criteria!B12</f>
         <v>3.2</v>
@@ -9625,7 +9625,7 @@
       <c r="G13" s="75"/>
     </row>
     <row r="14" spans="1:1023" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="102" t="str">
+      <c r="A14" s="105" t="str">
         <f>Criteria!$A$13</f>
         <v>MULTIMEDIA</v>
       </c>
@@ -9646,8 +9646,8 @@
       <c r="F14" s="82"/>
       <c r="G14" s="82"/>
     </row>
-    <row r="15" spans="1:1023" ht="58" x14ac:dyDescent="0.35">
-      <c r="A15" s="104"/>
+    <row r="15" spans="1:1023" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="106"/>
       <c r="B15" s="46" t="str">
         <f>Criteria!B14</f>
         <v>4.2</v>
@@ -9666,14 +9666,14 @@
       <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:1023" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="104"/>
+      <c r="A16" s="106"/>
       <c r="B16" s="46" t="str">
         <f>Criteria!B15</f>
         <v>4.3</v>
       </c>
       <c r="C16" s="32" t="str">
         <f>Criteria!C15</f>
-        <v>Does each pre-recorded synchronised time-based media have, if necessary, synchronised subtitles (excluding special cases)?</v>
+        <v>Does each pre-recorded synchronised time-based media have, if necessary, synchronised captions (excluding special cases)?</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>73</v>
@@ -9685,14 +9685,14 @@
       <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:64" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="104"/>
+      <c r="A17" s="106"/>
       <c r="B17" s="46" t="str">
         <f>Criteria!B16</f>
         <v>4.4</v>
       </c>
       <c r="C17" s="32" t="str">
         <f>Criteria!C16</f>
-        <v>For each pre-recorded synchronised time-based media with synchronised subtitles, are these subtitles relevant?</v>
+        <v>For each pre-recorded synchronised time-based media with synchronised subtitles, are these captions relevant?</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>73</v>
@@ -9704,7 +9704,7 @@
       <c r="G17" s="32"/>
     </row>
     <row r="18" spans="1:64" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="104"/>
+      <c r="A18" s="106"/>
       <c r="B18" s="46" t="str">
         <f>Criteria!B17</f>
         <v>4.8</v>
@@ -9723,7 +9723,7 @@
       <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:64" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="104"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="46" t="str">
         <f>Criteria!B18</f>
         <v>4.9</v>
@@ -9742,7 +9742,7 @@
       <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:64" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="104"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="46" t="str">
         <f>Criteria!B19</f>
         <v>4.10</v>
@@ -9760,8 +9760,8 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="1:64" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="103"/>
+    <row r="21" spans="1:64" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="107"/>
       <c r="B21" s="84" t="str">
         <f>Criteria!B20</f>
         <v>4.11</v>
@@ -9779,8 +9779,8 @@
       <c r="F21" s="85"/>
       <c r="G21" s="85"/>
     </row>
-    <row r="22" spans="1:64" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="102" t="s">
+    <row r="22" spans="1:64" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="105" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="81" t="str">
@@ -9801,7 +9801,7 @@
       <c r="G22" s="82"/>
     </row>
     <row r="23" spans="1:64" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="103"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="84" t="str">
         <f>Criteria!B22</f>
         <v>5.7</v>
@@ -9820,7 +9820,7 @@
       <c r="G23" s="85"/>
     </row>
     <row r="24" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A24" s="102" t="str">
+      <c r="A24" s="105" t="str">
         <f>Criteria!$A$23</f>
         <v>LINKS</v>
       </c>
@@ -9842,14 +9842,14 @@
       <c r="G24" s="82"/>
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A25" s="103"/>
+      <c r="A25" s="107"/>
       <c r="B25" s="84" t="str">
         <f>Criteria!B24</f>
         <v>6.2</v>
       </c>
       <c r="C25" s="85" t="str">
         <f>Criteria!C24</f>
-        <v>On each web page, does each link have a title?</v>
+        <v>On each web page, does each link have an accessible name?</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>73</v>
@@ -9870,7 +9870,7 @@
       </c>
       <c r="C26" s="80" t="str">
         <f>Criteria!C25</f>
-        <v>Is each script controllable by keyboard and any pointing device (excluding special cases)?</v>
+        <v>Is each script accessible and operable by keyboard and any pointing device (excluding special cases)?</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>73</v>
@@ -9881,8 +9881,8 @@
       <c r="F26" s="80"/>
       <c r="G26" s="80"/>
     </row>
-    <row r="27" spans="1:64" s="71" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="105" t="s">
+    <row r="27" spans="1:64" s="71" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="103" t="s">
         <v>92</v>
       </c>
       <c r="B27" s="81">
@@ -9890,7 +9890,7 @@
       </c>
       <c r="C27" s="82" t="str">
         <f>Criteria!C26</f>
-        <v>Is each web page defined by a document type?</v>
+        <v>Has each web page a defined document type?</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>73</v>
@@ -9958,8 +9958,8 @@
       <c r="BK27" s="5"/>
       <c r="BL27" s="5"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="97"/>
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="95"/>
       <c r="B28" s="46" t="str">
         <f>Criteria!B27</f>
         <v>8.2</v>
@@ -10034,8 +10034,8 @@
       <c r="BK28" s="5"/>
       <c r="BL28" s="5"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="97"/>
+    <row r="29" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="95"/>
       <c r="B29" s="46" t="str">
         <f>Criteria!B28</f>
         <v>8.3</v>
@@ -10111,7 +10111,7 @@
       <c r="BL29" s="5"/>
     </row>
     <row r="30" spans="1:64" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="97"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="46" t="str">
         <f>Criteria!B29</f>
         <v>8.4</v>
@@ -10130,7 +10130,7 @@
       <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A31" s="97"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="46" t="str">
         <f>Criteria!B30</f>
         <v>8.5</v>
@@ -10149,7 +10149,7 @@
       <c r="G31" s="32"/>
     </row>
     <row r="32" spans="1:64" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="97"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="46" t="str">
         <f>Criteria!B31</f>
         <v>8.6</v>
@@ -10167,8 +10167,8 @@
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
     </row>
-    <row r="33" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="97"/>
+    <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="95"/>
       <c r="B33" s="46" t="str">
         <f>Criteria!B32</f>
         <v>8.7</v>
@@ -10187,7 +10187,7 @@
       <c r="G33" s="32"/>
     </row>
     <row r="34" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="106"/>
+      <c r="A34" s="104"/>
       <c r="B34" s="84" t="str">
         <f>Criteria!B33</f>
         <v>8.8</v>
@@ -10206,7 +10206,7 @@
       <c r="G34" s="85"/>
     </row>
     <row r="35" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="102" t="str">
+      <c r="A35" s="105" t="str">
         <f>Criteria!$A$34</f>
         <v>STRUCTURATION</v>
       </c>
@@ -10216,7 +10216,7 @@
       </c>
       <c r="C35" s="82" t="str">
         <f>Criteria!C34</f>
-        <v>On each web page, is the information structured by the appropriate use of titles?</v>
+        <v>On each web page, is the information structured by the appropriate use of headings?</v>
       </c>
       <c r="D35" s="32" t="s">
         <v>73</v>
@@ -10228,7 +10228,7 @@
       <c r="G35" s="82"/>
     </row>
     <row r="36" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="103"/>
+      <c r="A36" s="107"/>
       <c r="B36" s="84" t="str">
         <f>Criteria!B35</f>
         <v>9.2</v>
@@ -10247,7 +10247,7 @@
       <c r="G36" s="85"/>
     </row>
     <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="102" t="s">
+      <c r="A37" s="105" t="s">
         <v>93</v>
       </c>
       <c r="B37" s="81" t="str">
@@ -10267,8 +10267,8 @@
       <c r="F37" s="82"/>
       <c r="G37" s="82"/>
     </row>
-    <row r="38" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="104"/>
+    <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="106"/>
       <c r="B38" s="46" t="str">
         <f>Criteria!B37</f>
         <v>10.8</v>
@@ -10286,8 +10286,8 @@
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
     </row>
-    <row r="39" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="104"/>
+    <row r="39" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="106"/>
       <c r="B39" s="46" t="str">
         <f>Criteria!B38</f>
         <v>10.9</v>
@@ -10306,7 +10306,7 @@
       <c r="G39" s="32"/>
     </row>
     <row r="40" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="104"/>
+      <c r="A40" s="106"/>
       <c r="B40" s="46" t="str">
         <f>Criteria!B39</f>
         <v>10.10</v>
@@ -10324,8 +10324,8 @@
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
     </row>
-    <row r="41" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A41" s="103"/>
+    <row r="41" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="107"/>
       <c r="B41" s="84" t="str">
         <f>Criteria!B40</f>
         <v>10.14</v>
@@ -10344,7 +10344,7 @@
       <c r="G41" s="85"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="102" t="str">
+      <c r="A42" s="105" t="str">
         <f>Criteria!$A$41</f>
         <v>FORMS</v>
       </c>
@@ -10366,7 +10366,7 @@
       <c r="G42" s="82"/>
     </row>
     <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="104"/>
+      <c r="A43" s="106"/>
       <c r="B43" s="46" t="str">
         <f>Criteria!B42</f>
         <v>11.2</v>
@@ -10385,14 +10385,14 @@
       <c r="G43" s="32"/>
     </row>
     <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="104"/>
+      <c r="A44" s="106"/>
       <c r="B44" s="46" t="str">
         <f>Criteria!B43</f>
         <v>11.5</v>
       </c>
       <c r="C44" s="32" t="str">
         <f>Criteria!C43</f>
-        <v>In each form, are the fields of same kind grouped together, if necessary?</v>
+        <v>In each form, are the related form controls grouped together, if necessary?</v>
       </c>
       <c r="D44" s="32" t="s">
         <v>73</v>
@@ -10404,14 +10404,14 @@
       <c r="G44" s="32"/>
     </row>
     <row r="45" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="104"/>
+      <c r="A45" s="106"/>
       <c r="B45" s="46" t="str">
         <f>Criteria!B44</f>
         <v>11.6</v>
       </c>
       <c r="C45" s="32" t="str">
         <f>Criteria!C44</f>
-        <v>In each form, does each group of fields of same kind have a legend?</v>
+        <v>In each form, does each group of related form controls have a legend?</v>
       </c>
       <c r="D45" s="32" t="s">
         <v>73</v>
@@ -10422,15 +10422,15 @@
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
     </row>
-    <row r="46" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="104"/>
+    <row r="46" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="106"/>
       <c r="B46" s="46" t="str">
         <f>Criteria!B45</f>
         <v>11.7</v>
       </c>
       <c r="C46" s="32" t="str">
         <f>Criteria!C45</f>
-        <v>In each form, is each legend associated with a group of fields of same kind relevant?</v>
+        <v>In each form, is each legend associated with a group of related form controls relevant?</v>
       </c>
       <c r="D46" s="32" t="s">
         <v>73</v>
@@ -10442,14 +10442,14 @@
       <c r="G46" s="32"/>
     </row>
     <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="104"/>
+      <c r="A47" s="106"/>
       <c r="B47" s="46" t="str">
         <f>Criteria!B46</f>
         <v>11.9</v>
       </c>
       <c r="C47" s="32" t="str">
         <f>Criteria!C46</f>
-        <v>In each form, is the title of each button relevant (excluding special cases)?</v>
+        <v>In each form, is the label of each button relevant (excluding special cases)?</v>
       </c>
       <c r="D47" s="32" t="s">
         <v>73</v>
@@ -10461,14 +10461,14 @@
       <c r="G47" s="32"/>
     </row>
     <row r="48" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="103"/>
+      <c r="A48" s="107"/>
       <c r="B48" s="84" t="str">
         <f>Criteria!B47</f>
         <v>11.10</v>
       </c>
       <c r="C48" s="85" t="str">
         <f>Criteria!C47</f>
-        <v>In each form, is the input control used appropriately (excluding special cases)?</v>
+        <v>In each form, is the error management used appropriately (excluding special cases)?</v>
       </c>
       <c r="D48" s="32" t="s">
         <v>73</v>
@@ -10479,8 +10479,8 @@
       <c r="F48" s="85"/>
       <c r="G48" s="85"/>
     </row>
-    <row r="49" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="102" t="s">
+    <row r="49" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="105" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="81" t="str">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="C49" s="82" t="str">
         <f>Criteria!C48</f>
-        <v>Can content grouping zones present in several web pages header, main navigation, main content, footer and search engine) be reached or avoided?</v>
+        <v>Can content grouping regions present in several web pages header, main navigation, main content, footer and search engine) be reached or avoided?</v>
       </c>
       <c r="D49" s="32" t="s">
         <v>73</v>
@@ -10500,8 +10500,8 @@
       <c r="F49" s="82"/>
       <c r="G49" s="82"/>
     </row>
-    <row r="50" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="104"/>
+    <row r="50" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A50" s="106"/>
       <c r="B50" s="46" t="str">
         <f>Criteria!B49</f>
         <v>12.7</v>
@@ -10519,15 +10519,15 @@
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
     </row>
-    <row r="51" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="104"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="106"/>
       <c r="B51" s="46" t="str">
         <f>Criteria!B50</f>
         <v>12.8</v>
       </c>
       <c r="C51" s="32" t="str">
         <f>Criteria!C50</f>
-        <v>On each web page, is the tab order consistent?</v>
+        <v>On each web page, is the navigation sequence consistent?</v>
       </c>
       <c r="D51" s="32" t="s">
         <v>73</v>
@@ -10538,8 +10538,8 @@
       <c r="F51" s="32"/>
       <c r="G51" s="32"/>
     </row>
-    <row r="52" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="104"/>
+    <row r="52" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="106"/>
       <c r="B52" s="46" t="str">
         <f>Criteria!B51</f>
         <v>12.9</v>
@@ -10558,7 +10558,7 @@
       <c r="G52" s="32"/>
     </row>
     <row r="53" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A53" s="103"/>
+      <c r="A53" s="107"/>
       <c r="B53" s="84" t="str">
         <f>Criteria!B52</f>
         <v>12.11</v>
@@ -10577,7 +10577,7 @@
       <c r="G53" s="85"/>
     </row>
     <row r="54" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="102" t="str">
+      <c r="A54" s="105" t="str">
         <f>Criteria!$A$53</f>
         <v>CONSULTATION</v>
       </c>
@@ -10598,15 +10598,15 @@
       <c r="F54" s="82"/>
       <c r="G54" s="82"/>
     </row>
-    <row r="55" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="104"/>
+    <row r="55" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="106"/>
       <c r="B55" s="46" t="str">
         <f>Criteria!B54</f>
         <v>13.7</v>
       </c>
       <c r="C55" s="32" t="str">
         <f>Criteria!C54</f>
-        <v>On each web page, are sudden changes in brightness or flashing effects used correctly?</v>
+        <v>On each web page, are sudden changes in brightness or blinking used correctly?</v>
       </c>
       <c r="D55" s="32" t="s">
         <v>73</v>
@@ -10617,15 +10617,15 @@
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
     </row>
-    <row r="56" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="103"/>
+    <row r="56" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="107"/>
       <c r="B56" s="84" t="str">
         <f>Criteria!B55</f>
         <v>13.8</v>
       </c>
       <c r="C56" s="85" t="str">
         <f>Criteria!C55</f>
-        <v>On each web page, is every moving or flashing content controllable by the user?</v>
+        <v>On each web page, is every moving or blinking content controllable by the user?</v>
       </c>
       <c r="D56" s="32" t="s">
         <v>73</v>
@@ -10638,6 +10638,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A56"/>
     <mergeCell ref="A27:A34"/>
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="A22:A23"/>
@@ -10646,11 +10651,6 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A56"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D56">
     <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
@@ -10714,28 +10714,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A1" s="92" t="str">
+      <c r="A1" s="93" t="str">
         <f>Sample!A1</f>
         <v>SIMPLIFIED AUDIT – ASSESSMENT GRID</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A2" s="107" t="str">
+      <c r="A2" s="108" t="str">
         <f>CONCATENATE(Sample!B8," : ",Sample!C8)</f>
         <v>Page title 2 : https:///www.example.com/2.html</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
     </row>
     <row r="3" spans="1:64" s="49" customFormat="1" ht="57" x14ac:dyDescent="0.3">
       <c r="A3" s="90" t="s">
@@ -10748,16 +10748,16 @@
         <v>108</v>
       </c>
       <c r="D3" s="90" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
@@ -10818,7 +10818,7 @@
       <c r="BL3" s="48"/>
     </row>
     <row r="4" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="str">
+      <c r="A4" s="105" t="str">
         <f>Criteria!$A$3</f>
         <v>IMAGES</v>
       </c>
@@ -10896,7 +10896,7 @@
       <c r="BL4" s="48"/>
     </row>
     <row r="5" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A5" s="104"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="46" t="str">
         <f>Criteria!B4</f>
         <v>1.2</v>
@@ -10972,7 +10972,7 @@
       <c r="BL5" s="48"/>
     </row>
     <row r="6" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="104"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="46" t="str">
         <f>Criteria!B5</f>
         <v>1.3</v>
@@ -11047,8 +11047,8 @@
       <c r="BK6" s="48"/>
       <c r="BL6" s="48"/>
     </row>
-    <row r="7" spans="1:64" s="49" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A7" s="104"/>
+    <row r="7" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="106"/>
       <c r="B7" s="46" t="str">
         <f>Criteria!B6</f>
         <v>1.4</v>
@@ -11124,7 +11124,7 @@
       <c r="BL7" s="48"/>
     </row>
     <row r="8" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="104"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="46" t="str">
         <f>Criteria!B7</f>
         <v>1.5</v>
@@ -11200,7 +11200,7 @@
       <c r="BL8" s="48"/>
     </row>
     <row r="9" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A9" s="104"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="46" t="str">
         <f>Criteria!B8</f>
         <v>1.6</v>
@@ -11275,8 +11275,8 @@
       <c r="BK9" s="48"/>
       <c r="BL9" s="48"/>
     </row>
-    <row r="10" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="103"/>
+    <row r="10" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A10" s="107"/>
       <c r="B10" s="84" t="str">
         <f>Criteria!B9</f>
         <v>1.7</v>
@@ -11351,7 +11351,7 @@
       <c r="BK10" s="48"/>
       <c r="BL10" s="48"/>
     </row>
-    <row r="11" spans="1:64" s="49" customFormat="1" ht="41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="49" customFormat="1" ht="42.5" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="str">
         <f>Criteria!$A$10</f>
         <v>FRAMES</v>
@@ -11430,8 +11430,8 @@
       <c r="BK11" s="48"/>
       <c r="BL11" s="48"/>
     </row>
-    <row r="12" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="102" t="str">
+    <row r="12" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A12" s="105" t="str">
         <f>Criteria!$A$11</f>
         <v>COLOURS</v>
       </c>
@@ -11441,7 +11441,7 @@
       </c>
       <c r="C12" s="82" t="str">
         <f>Criteria!C11</f>
-        <v>In every web page, the information must not be provided by colour alone. Is this rule respected?</v>
+        <v>On each web page, the information must not be provided by colour alone. Is this rule respected?</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>73</v>
@@ -11510,7 +11510,7 @@
       <c r="BL12" s="48"/>
     </row>
     <row r="13" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="103"/>
+      <c r="A13" s="107"/>
       <c r="B13" s="84" t="str">
         <f>Criteria!B12</f>
         <v>3.2</v>
@@ -11586,7 +11586,7 @@
       <c r="BL13" s="48"/>
     </row>
     <row r="14" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="102" t="str">
+      <c r="A14" s="105" t="str">
         <f>Criteria!$A$13</f>
         <v>MULTIMEDIA</v>
       </c>
@@ -11664,8 +11664,8 @@
       <c r="BK14" s="48"/>
       <c r="BL14" s="48"/>
     </row>
-    <row r="15" spans="1:64" s="49" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A15" s="104"/>
+    <row r="15" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="106"/>
       <c r="B15" s="46" t="str">
         <f>Criteria!B14</f>
         <v>4.2</v>
@@ -11741,14 +11741,14 @@
       <c r="BL15" s="48"/>
     </row>
     <row r="16" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="104"/>
+      <c r="A16" s="106"/>
       <c r="B16" s="46" t="str">
         <f>Criteria!B15</f>
         <v>4.3</v>
       </c>
       <c r="C16" s="32" t="str">
         <f>Criteria!C15</f>
-        <v>Does each pre-recorded synchronised time-based media have, if necessary, synchronised subtitles (excluding special cases)?</v>
+        <v>Does each pre-recorded synchronised time-based media have, if necessary, synchronised captions (excluding special cases)?</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>73</v>
@@ -11816,15 +11816,15 @@
       <c r="BK16" s="48"/>
       <c r="BL16" s="48"/>
     </row>
-    <row r="17" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="104"/>
+    <row r="17" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A17" s="106"/>
       <c r="B17" s="46" t="str">
         <f>Criteria!B16</f>
         <v>4.4</v>
       </c>
       <c r="C17" s="32" t="str">
         <f>Criteria!C16</f>
-        <v>For each pre-recorded synchronised time-based media with synchronised subtitles, are these subtitles relevant?</v>
+        <v>For each pre-recorded synchronised time-based media with synchronised subtitles, are these captions relevant?</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>73</v>
@@ -11893,7 +11893,7 @@
       <c r="BL17" s="48"/>
     </row>
     <row r="18" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A18" s="104"/>
+      <c r="A18" s="106"/>
       <c r="B18" s="46" t="str">
         <f>Criteria!B17</f>
         <v>4.8</v>
@@ -11969,7 +11969,7 @@
       <c r="BL18" s="48"/>
     </row>
     <row r="19" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A19" s="104"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="46" t="str">
         <f>Criteria!B18</f>
         <v>4.9</v>
@@ -12045,7 +12045,7 @@
       <c r="BL19" s="48"/>
     </row>
     <row r="20" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A20" s="104"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="46" t="str">
         <f>Criteria!B19</f>
         <v>4.10</v>
@@ -12120,8 +12120,8 @@
       <c r="BK20" s="48"/>
       <c r="BL20" s="48"/>
     </row>
-    <row r="21" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="103"/>
+    <row r="21" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A21" s="107"/>
       <c r="B21" s="84" t="str">
         <f>Criteria!B20</f>
         <v>4.11</v>
@@ -12196,8 +12196,8 @@
       <c r="BK21" s="48"/>
       <c r="BL21" s="48"/>
     </row>
-    <row r="22" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="102" t="s">
+    <row r="22" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A22" s="105" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="81" t="str">
@@ -12275,7 +12275,7 @@
       <c r="BL22" s="48"/>
     </row>
     <row r="23" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="103"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="84" t="str">
         <f>Criteria!B22</f>
         <v>5.7</v>
@@ -12351,7 +12351,7 @@
       <c r="BL23" s="48"/>
     </row>
     <row r="24" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="102" t="str">
+      <c r="A24" s="105" t="str">
         <f>Criteria!$A$23</f>
         <v>LINKS</v>
       </c>
@@ -12430,14 +12430,14 @@
       <c r="BL24" s="48"/>
     </row>
     <row r="25" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="103"/>
+      <c r="A25" s="107"/>
       <c r="B25" s="84" t="str">
         <f>Criteria!B24</f>
         <v>6.2</v>
       </c>
       <c r="C25" s="85" t="str">
         <f>Criteria!C24</f>
-        <v>On each web page, does each link have a title?</v>
+        <v>On each web page, does each link have an accessible name?</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>73</v>
@@ -12515,7 +12515,7 @@
       </c>
       <c r="C26" s="80" t="str">
         <f>Criteria!C25</f>
-        <v>Is each script controllable by keyboard and any pointing device (excluding special cases)?</v>
+        <v>Is each script accessible and operable by keyboard and any pointing device (excluding special cases)?</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>73</v>
@@ -12583,8 +12583,8 @@
       <c r="BK26" s="48"/>
       <c r="BL26" s="48"/>
     </row>
-    <row r="27" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A27" s="105" t="s">
+    <row r="27" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="103" t="s">
         <v>92</v>
       </c>
       <c r="B27" s="81">
@@ -12592,7 +12592,7 @@
       </c>
       <c r="C27" s="82" t="str">
         <f>Criteria!C26</f>
-        <v>Is each web page defined by a document type?</v>
+        <v>Has each web page a defined document type?</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>73</v>
@@ -12660,8 +12660,8 @@
       <c r="BK27" s="48"/>
       <c r="BL27" s="48"/>
     </row>
-    <row r="28" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="97"/>
+    <row r="28" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A28" s="95"/>
       <c r="B28" s="46" t="str">
         <f>Criteria!B27</f>
         <v>8.2</v>
@@ -12736,8 +12736,8 @@
       <c r="BK28" s="48"/>
       <c r="BL28" s="48"/>
     </row>
-    <row r="29" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A29" s="97"/>
+    <row r="29" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="95"/>
       <c r="B29" s="46" t="str">
         <f>Criteria!B28</f>
         <v>8.3</v>
@@ -12813,7 +12813,7 @@
       <c r="BL29" s="48"/>
     </row>
     <row r="30" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A30" s="97"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="46" t="str">
         <f>Criteria!B29</f>
         <v>8.4</v>
@@ -12889,7 +12889,7 @@
       <c r="BL30" s="48"/>
     </row>
     <row r="31" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="97"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="46" t="str">
         <f>Criteria!B30</f>
         <v>8.5</v>
@@ -12964,8 +12964,8 @@
       <c r="BK31" s="48"/>
       <c r="BL31" s="48"/>
     </row>
-    <row r="32" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A32" s="97"/>
+    <row r="32" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="95"/>
       <c r="B32" s="46" t="str">
         <f>Criteria!B31</f>
         <v>8.6</v>
@@ -13041,7 +13041,7 @@
       <c r="BL32" s="48"/>
     </row>
     <row r="33" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A33" s="97"/>
+      <c r="A33" s="95"/>
       <c r="B33" s="46" t="str">
         <f>Criteria!B32</f>
         <v>8.7</v>
@@ -13117,7 +13117,7 @@
       <c r="BL33" s="48"/>
     </row>
     <row r="34" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A34" s="97"/>
+      <c r="A34" s="95"/>
       <c r="B34" s="74" t="str">
         <f>Criteria!B33</f>
         <v>8.8</v>
@@ -13193,7 +13193,7 @@
       <c r="BL34" s="48"/>
     </row>
     <row r="35" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A35" s="102" t="str">
+      <c r="A35" s="105" t="str">
         <f>Criteria!$A$34</f>
         <v>STRUCTURATION</v>
       </c>
@@ -13203,7 +13203,7 @@
       </c>
       <c r="C35" s="82" t="str">
         <f>Criteria!C34</f>
-        <v>On each web page, is the information structured by the appropriate use of titles?</v>
+        <v>On each web page, is the information structured by the appropriate use of headings?</v>
       </c>
       <c r="D35" s="32" t="s">
         <v>73</v>
@@ -13272,7 +13272,7 @@
       <c r="BL35" s="48"/>
     </row>
     <row r="36" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A36" s="103"/>
+      <c r="A36" s="107"/>
       <c r="B36" s="84" t="str">
         <f>Criteria!B35</f>
         <v>9.2</v>
@@ -13348,7 +13348,7 @@
       <c r="BL36" s="48"/>
     </row>
     <row r="37" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A37" s="102" t="s">
+      <c r="A37" s="105" t="s">
         <v>93</v>
       </c>
       <c r="B37" s="81" t="str">
@@ -13425,8 +13425,8 @@
       <c r="BK37" s="48"/>
       <c r="BL37" s="48"/>
     </row>
-    <row r="38" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="104"/>
+    <row r="38" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A38" s="106"/>
       <c r="B38" s="46" t="str">
         <f>Criteria!B37</f>
         <v>10.8</v>
@@ -13501,8 +13501,8 @@
       <c r="BK38" s="48"/>
       <c r="BL38" s="48"/>
     </row>
-    <row r="39" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="104"/>
+    <row r="39" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A39" s="106"/>
       <c r="B39" s="46" t="str">
         <f>Criteria!B38</f>
         <v>10.9</v>
@@ -13578,7 +13578,7 @@
       <c r="BL39" s="48"/>
     </row>
     <row r="40" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="104"/>
+      <c r="A40" s="106"/>
       <c r="B40" s="46" t="str">
         <f>Criteria!B39</f>
         <v>10.10</v>
@@ -13653,8 +13653,8 @@
       <c r="BK40" s="48"/>
       <c r="BL40" s="48"/>
     </row>
-    <row r="41" spans="1:64" s="49" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A41" s="103"/>
+    <row r="41" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="107"/>
       <c r="B41" s="84" t="str">
         <f>Criteria!B40</f>
         <v>10.14</v>
@@ -13730,7 +13730,7 @@
       <c r="BL41" s="48"/>
     </row>
     <row r="42" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A42" s="102" t="str">
+      <c r="A42" s="105" t="str">
         <f>Criteria!$A$41</f>
         <v>FORMS</v>
       </c>
@@ -13809,7 +13809,7 @@
       <c r="BL42" s="48"/>
     </row>
     <row r="43" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A43" s="104"/>
+      <c r="A43" s="106"/>
       <c r="B43" s="46" t="str">
         <f>Criteria!B42</f>
         <v>11.2</v>
@@ -13885,14 +13885,14 @@
       <c r="BL43" s="48"/>
     </row>
     <row r="44" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A44" s="104"/>
+      <c r="A44" s="106"/>
       <c r="B44" s="46" t="str">
         <f>Criteria!B43</f>
         <v>11.5</v>
       </c>
       <c r="C44" s="32" t="str">
         <f>Criteria!C43</f>
-        <v>In each form, are the fields of same kind grouped together, if necessary?</v>
+        <v>In each form, are the related form controls grouped together, if necessary?</v>
       </c>
       <c r="D44" s="32" t="s">
         <v>73</v>
@@ -13961,14 +13961,14 @@
       <c r="BL44" s="48"/>
     </row>
     <row r="45" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A45" s="104"/>
+      <c r="A45" s="106"/>
       <c r="B45" s="46" t="str">
         <f>Criteria!B44</f>
         <v>11.6</v>
       </c>
       <c r="C45" s="32" t="str">
         <f>Criteria!C44</f>
-        <v>In each form, does each group of fields of same kind have a legend?</v>
+        <v>In each form, does each group of related form controls have a legend?</v>
       </c>
       <c r="D45" s="32" t="s">
         <v>73</v>
@@ -14036,15 +14036,15 @@
       <c r="BK45" s="48"/>
       <c r="BL45" s="48"/>
     </row>
-    <row r="46" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="104"/>
+    <row r="46" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A46" s="106"/>
       <c r="B46" s="46" t="str">
         <f>Criteria!B45</f>
         <v>11.7</v>
       </c>
       <c r="C46" s="32" t="str">
         <f>Criteria!C45</f>
-        <v>In each form, is each legend associated with a group of fields of same kind relevant?</v>
+        <v>In each form, is each legend associated with a group of related form controls relevant?</v>
       </c>
       <c r="D46" s="32" t="s">
         <v>73</v>
@@ -14113,14 +14113,14 @@
       <c r="BL46" s="48"/>
     </row>
     <row r="47" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A47" s="104"/>
+      <c r="A47" s="106"/>
       <c r="B47" s="46" t="str">
         <f>Criteria!B46</f>
         <v>11.9</v>
       </c>
       <c r="C47" s="32" t="str">
         <f>Criteria!C46</f>
-        <v>In each form, is the title of each button relevant (excluding special cases)?</v>
+        <v>In each form, is the label of each button relevant (excluding special cases)?</v>
       </c>
       <c r="D47" s="32" t="s">
         <v>73</v>
@@ -14189,14 +14189,14 @@
       <c r="BL47" s="48"/>
     </row>
     <row r="48" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A48" s="103"/>
+      <c r="A48" s="107"/>
       <c r="B48" s="84" t="str">
         <f>Criteria!B47</f>
         <v>11.10</v>
       </c>
       <c r="C48" s="85" t="str">
         <f>Criteria!C47</f>
-        <v>In each form, is the input control used appropriately (excluding special cases)?</v>
+        <v>In each form, is the error management used appropriately (excluding special cases)?</v>
       </c>
       <c r="D48" s="32" t="s">
         <v>73</v>
@@ -14264,8 +14264,8 @@
       <c r="BK48" s="48"/>
       <c r="BL48" s="48"/>
     </row>
-    <row r="49" spans="1:64" s="49" customFormat="1" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="102" t="s">
+    <row r="49" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="105" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="81" t="str">
@@ -14274,7 +14274,7 @@
       </c>
       <c r="C49" s="82" t="str">
         <f>Criteria!C48</f>
-        <v>Can content grouping zones present in several web pages header, main navigation, main content, footer and search engine) be reached or avoided?</v>
+        <v>Can content grouping regions present in several web pages header, main navigation, main content, footer and search engine) be reached or avoided?</v>
       </c>
       <c r="D49" s="32" t="s">
         <v>73</v>
@@ -14342,8 +14342,8 @@
       <c r="BK49" s="48"/>
       <c r="BL49" s="48"/>
     </row>
-    <row r="50" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="104"/>
+    <row r="50" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A50" s="106"/>
       <c r="B50" s="46" t="str">
         <f>Criteria!B49</f>
         <v>12.7</v>
@@ -14419,14 +14419,14 @@
       <c r="BL50" s="48"/>
     </row>
     <row r="51" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A51" s="104"/>
+      <c r="A51" s="106"/>
       <c r="B51" s="46" t="str">
         <f>Criteria!B50</f>
         <v>12.8</v>
       </c>
       <c r="C51" s="32" t="str">
         <f>Criteria!C50</f>
-        <v>On each web page, is the tab order consistent?</v>
+        <v>On each web page, is the navigation sequence consistent?</v>
       </c>
       <c r="D51" s="32" t="s">
         <v>73</v>
@@ -14494,8 +14494,8 @@
       <c r="BK51" s="48"/>
       <c r="BL51" s="48"/>
     </row>
-    <row r="52" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="104"/>
+    <row r="52" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A52" s="106"/>
       <c r="B52" s="46" t="str">
         <f>Criteria!B51</f>
         <v>12.9</v>
@@ -14571,7 +14571,7 @@
       <c r="BL52" s="48"/>
     </row>
     <row r="53" spans="1:64" s="49" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A53" s="103"/>
+      <c r="A53" s="107"/>
       <c r="B53" s="84" t="str">
         <f>Criteria!B52</f>
         <v>12.11</v>
@@ -14647,7 +14647,7 @@
       <c r="BL53" s="48"/>
     </row>
     <row r="54" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="102" t="str">
+      <c r="A54" s="105" t="str">
         <f>Criteria!$A$53</f>
         <v>CONSULTATION</v>
       </c>
@@ -14725,15 +14725,15 @@
       <c r="BK54" s="48"/>
       <c r="BL54" s="48"/>
     </row>
-    <row r="55" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="104"/>
+    <row r="55" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A55" s="106"/>
       <c r="B55" s="46" t="str">
         <f>Criteria!B54</f>
         <v>13.7</v>
       </c>
       <c r="C55" s="32" t="str">
         <f>Criteria!C54</f>
-        <v>On each web page, are sudden changes in brightness or flashing effects used correctly?</v>
+        <v>On each web page, are sudden changes in brightness or blinking used correctly?</v>
       </c>
       <c r="D55" s="32" t="s">
         <v>73</v>
@@ -14802,14 +14802,14 @@
       <c r="BL55" s="48"/>
     </row>
     <row r="56" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A56" s="103"/>
+      <c r="A56" s="107"/>
       <c r="B56" s="84" t="str">
         <f>Criteria!B55</f>
         <v>13.8</v>
       </c>
       <c r="C56" s="85" t="str">
         <f>Criteria!C55</f>
-        <v>On each web page, is every moving or flashing content controllable by the user?</v>
+        <v>On each web page, is every moving or blinking content controllable by the user?</v>
       </c>
       <c r="D56" s="32" t="s">
         <v>73</v>
@@ -14879,6 +14879,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A49:A53"/>
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
@@ -14886,12 +14892,6 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A49:A53"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E56">
     <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
@@ -14937,7 +14937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BL56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
@@ -14955,28 +14955,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A1" s="92" t="str">
+      <c r="A1" s="93" t="str">
         <f>Sample!A1</f>
         <v>SIMPLIFIED AUDIT – ASSESSMENT GRID</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A2" s="107" t="str">
+      <c r="A2" s="108" t="str">
         <f>CONCATENATE(Sample!B9," : ",Sample!C9)</f>
         <v>Page title 3 : https:///www.example.com/3.html</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
     </row>
     <row r="3" spans="1:64" s="49" customFormat="1" ht="57" x14ac:dyDescent="0.3">
       <c r="A3" s="90" t="s">
@@ -14989,16 +14989,16 @@
         <v>108</v>
       </c>
       <c r="D3" s="90" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
@@ -15059,7 +15059,7 @@
       <c r="BL3" s="48"/>
     </row>
     <row r="4" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="str">
+      <c r="A4" s="105" t="str">
         <f>Criteria!$A$3</f>
         <v>IMAGES</v>
       </c>
@@ -15137,7 +15137,7 @@
       <c r="BL4" s="48"/>
     </row>
     <row r="5" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A5" s="104"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="46" t="str">
         <f>Criteria!B4</f>
         <v>1.2</v>
@@ -15213,7 +15213,7 @@
       <c r="BL5" s="48"/>
     </row>
     <row r="6" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="104"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="46" t="str">
         <f>Criteria!B5</f>
         <v>1.3</v>
@@ -15288,8 +15288,8 @@
       <c r="BK6" s="48"/>
       <c r="BL6" s="48"/>
     </row>
-    <row r="7" spans="1:64" s="49" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A7" s="104"/>
+    <row r="7" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="106"/>
       <c r="B7" s="46" t="str">
         <f>Criteria!B6</f>
         <v>1.4</v>
@@ -15365,7 +15365,7 @@
       <c r="BL7" s="48"/>
     </row>
     <row r="8" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="104"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="46" t="str">
         <f>Criteria!B7</f>
         <v>1.5</v>
@@ -15441,7 +15441,7 @@
       <c r="BL8" s="48"/>
     </row>
     <row r="9" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A9" s="104"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="46" t="str">
         <f>Criteria!B8</f>
         <v>1.6</v>
@@ -15516,8 +15516,8 @@
       <c r="BK9" s="48"/>
       <c r="BL9" s="48"/>
     </row>
-    <row r="10" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="103"/>
+    <row r="10" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A10" s="107"/>
       <c r="B10" s="84" t="str">
         <f>Criteria!B9</f>
         <v>1.7</v>
@@ -15592,7 +15592,7 @@
       <c r="BK10" s="48"/>
       <c r="BL10" s="48"/>
     </row>
-    <row r="11" spans="1:64" s="49" customFormat="1" ht="41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="49" customFormat="1" ht="42.5" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="str">
         <f>Criteria!$A$10</f>
         <v>FRAMES</v>
@@ -15671,8 +15671,8 @@
       <c r="BK11" s="48"/>
       <c r="BL11" s="48"/>
     </row>
-    <row r="12" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="102" t="str">
+    <row r="12" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A12" s="105" t="str">
         <f>Criteria!$A$11</f>
         <v>COLOURS</v>
       </c>
@@ -15682,7 +15682,7 @@
       </c>
       <c r="C12" s="82" t="str">
         <f>Criteria!C11</f>
-        <v>In every web page, the information must not be provided by colour alone. Is this rule respected?</v>
+        <v>On each web page, the information must not be provided by colour alone. Is this rule respected?</v>
       </c>
       <c r="D12" s="82" t="s">
         <v>73</v>
@@ -15751,7 +15751,7 @@
       <c r="BL12" s="48"/>
     </row>
     <row r="13" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="103"/>
+      <c r="A13" s="107"/>
       <c r="B13" s="84" t="str">
         <f>Criteria!B12</f>
         <v>3.2</v>
@@ -15827,7 +15827,7 @@
       <c r="BL13" s="48"/>
     </row>
     <row r="14" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="102" t="str">
+      <c r="A14" s="105" t="str">
         <f>Criteria!$A$13</f>
         <v>MULTIMEDIA</v>
       </c>
@@ -15905,8 +15905,8 @@
       <c r="BK14" s="48"/>
       <c r="BL14" s="48"/>
     </row>
-    <row r="15" spans="1:64" s="49" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A15" s="104"/>
+    <row r="15" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="106"/>
       <c r="B15" s="46" t="str">
         <f>Criteria!B14</f>
         <v>4.2</v>
@@ -15982,14 +15982,14 @@
       <c r="BL15" s="48"/>
     </row>
     <row r="16" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="104"/>
+      <c r="A16" s="106"/>
       <c r="B16" s="46" t="str">
         <f>Criteria!B15</f>
         <v>4.3</v>
       </c>
       <c r="C16" s="32" t="str">
         <f>Criteria!C15</f>
-        <v>Does each pre-recorded synchronised time-based media have, if necessary, synchronised subtitles (excluding special cases)?</v>
+        <v>Does each pre-recorded synchronised time-based media have, if necessary, synchronised captions (excluding special cases)?</v>
       </c>
       <c r="D16" s="82" t="s">
         <v>73</v>
@@ -16057,15 +16057,15 @@
       <c r="BK16" s="48"/>
       <c r="BL16" s="48"/>
     </row>
-    <row r="17" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="104"/>
+    <row r="17" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A17" s="106"/>
       <c r="B17" s="46" t="str">
         <f>Criteria!B16</f>
         <v>4.4</v>
       </c>
       <c r="C17" s="32" t="str">
         <f>Criteria!C16</f>
-        <v>For each pre-recorded synchronised time-based media with synchronised subtitles, are these subtitles relevant?</v>
+        <v>For each pre-recorded synchronised time-based media with synchronised subtitles, are these captions relevant?</v>
       </c>
       <c r="D17" s="82" t="s">
         <v>73</v>
@@ -16134,7 +16134,7 @@
       <c r="BL17" s="48"/>
     </row>
     <row r="18" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A18" s="104"/>
+      <c r="A18" s="106"/>
       <c r="B18" s="46" t="str">
         <f>Criteria!B17</f>
         <v>4.8</v>
@@ -16210,7 +16210,7 @@
       <c r="BL18" s="48"/>
     </row>
     <row r="19" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A19" s="104"/>
+      <c r="A19" s="106"/>
       <c r="B19" s="46" t="str">
         <f>Criteria!B18</f>
         <v>4.9</v>
@@ -16286,7 +16286,7 @@
       <c r="BL19" s="48"/>
     </row>
     <row r="20" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A20" s="104"/>
+      <c r="A20" s="106"/>
       <c r="B20" s="46" t="str">
         <f>Criteria!B19</f>
         <v>4.10</v>
@@ -16361,8 +16361,8 @@
       <c r="BK20" s="48"/>
       <c r="BL20" s="48"/>
     </row>
-    <row r="21" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="103"/>
+    <row r="21" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A21" s="107"/>
       <c r="B21" s="84" t="str">
         <f>Criteria!B20</f>
         <v>4.11</v>
@@ -16437,8 +16437,8 @@
       <c r="BK21" s="48"/>
       <c r="BL21" s="48"/>
     </row>
-    <row r="22" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="102" t="s">
+    <row r="22" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A22" s="105" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="81" t="str">
@@ -16516,7 +16516,7 @@
       <c r="BL22" s="48"/>
     </row>
     <row r="23" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="103"/>
+      <c r="A23" s="107"/>
       <c r="B23" s="84" t="str">
         <f>Criteria!B22</f>
         <v>5.7</v>
@@ -16592,7 +16592,7 @@
       <c r="BL23" s="48"/>
     </row>
     <row r="24" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="102" t="str">
+      <c r="A24" s="105" t="str">
         <f>Criteria!$A$23</f>
         <v>LINKS</v>
       </c>
@@ -16671,14 +16671,14 @@
       <c r="BL24" s="48"/>
     </row>
     <row r="25" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="103"/>
+      <c r="A25" s="107"/>
       <c r="B25" s="84" t="str">
         <f>Criteria!B24</f>
         <v>6.2</v>
       </c>
       <c r="C25" s="85" t="str">
         <f>Criteria!C24</f>
-        <v>On each web page, does each link have a title?</v>
+        <v>On each web page, does each link have an accessible name?</v>
       </c>
       <c r="D25" s="82" t="s">
         <v>73</v>
@@ -16756,7 +16756,7 @@
       </c>
       <c r="C26" s="80" t="str">
         <f>Criteria!C25</f>
-        <v>Is each script controllable by keyboard and any pointing device (excluding special cases)?</v>
+        <v>Is each script accessible and operable by keyboard and any pointing device (excluding special cases)?</v>
       </c>
       <c r="D26" s="82" t="s">
         <v>73</v>
@@ -16824,8 +16824,8 @@
       <c r="BK26" s="48"/>
       <c r="BL26" s="48"/>
     </row>
-    <row r="27" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A27" s="105" t="s">
+    <row r="27" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="103" t="s">
         <v>92</v>
       </c>
       <c r="B27" s="81">
@@ -16833,7 +16833,7 @@
       </c>
       <c r="C27" s="82" t="str">
         <f>Criteria!C26</f>
-        <v>Is each web page defined by a document type?</v>
+        <v>Has each web page a defined document type?</v>
       </c>
       <c r="D27" s="82" t="s">
         <v>73</v>
@@ -16901,8 +16901,8 @@
       <c r="BK27" s="48"/>
       <c r="BL27" s="48"/>
     </row>
-    <row r="28" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="97"/>
+    <row r="28" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A28" s="95"/>
       <c r="B28" s="46" t="str">
         <f>Criteria!B27</f>
         <v>8.2</v>
@@ -16977,8 +16977,8 @@
       <c r="BK28" s="48"/>
       <c r="BL28" s="48"/>
     </row>
-    <row r="29" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A29" s="97"/>
+    <row r="29" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="95"/>
       <c r="B29" s="46" t="str">
         <f>Criteria!B28</f>
         <v>8.3</v>
@@ -17054,7 +17054,7 @@
       <c r="BL29" s="48"/>
     </row>
     <row r="30" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A30" s="97"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="46" t="str">
         <f>Criteria!B29</f>
         <v>8.4</v>
@@ -17130,7 +17130,7 @@
       <c r="BL30" s="48"/>
     </row>
     <row r="31" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="97"/>
+      <c r="A31" s="95"/>
       <c r="B31" s="46" t="str">
         <f>Criteria!B30</f>
         <v>8.5</v>
@@ -17205,8 +17205,8 @@
       <c r="BK31" s="48"/>
       <c r="BL31" s="48"/>
     </row>
-    <row r="32" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A32" s="97"/>
+    <row r="32" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="95"/>
       <c r="B32" s="46" t="str">
         <f>Criteria!B31</f>
         <v>8.6</v>
@@ -17281,8 +17281,8 @@
       <c r="BK32" s="48"/>
       <c r="BL32" s="48"/>
     </row>
-    <row r="33" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="97"/>
+    <row r="33" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A33" s="95"/>
       <c r="B33" s="46" t="str">
         <f>Criteria!B32</f>
         <v>8.7</v>
@@ -17358,7 +17358,7 @@
       <c r="BL33" s="48"/>
     </row>
     <row r="34" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A34" s="106"/>
+      <c r="A34" s="104"/>
       <c r="B34" s="84" t="str">
         <f>Criteria!B33</f>
         <v>8.8</v>
@@ -17434,7 +17434,7 @@
       <c r="BL34" s="48"/>
     </row>
     <row r="35" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A35" s="102" t="str">
+      <c r="A35" s="105" t="str">
         <f>Criteria!$A$34</f>
         <v>STRUCTURATION</v>
       </c>
@@ -17444,7 +17444,7 @@
       </c>
       <c r="C35" s="82" t="str">
         <f>Criteria!C34</f>
-        <v>On each web page, is the information structured by the appropriate use of titles?</v>
+        <v>On each web page, is the information structured by the appropriate use of headings?</v>
       </c>
       <c r="D35" s="82" t="s">
         <v>73</v>
@@ -17513,7 +17513,7 @@
       <c r="BL35" s="48"/>
     </row>
     <row r="36" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A36" s="103"/>
+      <c r="A36" s="107"/>
       <c r="B36" s="84" t="str">
         <f>Criteria!B35</f>
         <v>9.2</v>
@@ -17589,7 +17589,7 @@
       <c r="BL36" s="48"/>
     </row>
     <row r="37" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A37" s="102" t="s">
+      <c r="A37" s="105" t="s">
         <v>93</v>
       </c>
       <c r="B37" s="81" t="str">
@@ -17666,8 +17666,8 @@
       <c r="BK37" s="48"/>
       <c r="BL37" s="48"/>
     </row>
-    <row r="38" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="104"/>
+    <row r="38" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A38" s="106"/>
       <c r="B38" s="46" t="str">
         <f>Criteria!B37</f>
         <v>10.8</v>
@@ -17742,8 +17742,8 @@
       <c r="BK38" s="48"/>
       <c r="BL38" s="48"/>
     </row>
-    <row r="39" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="104"/>
+    <row r="39" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A39" s="106"/>
       <c r="B39" s="46" t="str">
         <f>Criteria!B38</f>
         <v>10.9</v>
@@ -17819,7 +17819,7 @@
       <c r="BL39" s="48"/>
     </row>
     <row r="40" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="104"/>
+      <c r="A40" s="106"/>
       <c r="B40" s="46" t="str">
         <f>Criteria!B39</f>
         <v>10.10</v>
@@ -17894,8 +17894,8 @@
       <c r="BK40" s="48"/>
       <c r="BL40" s="48"/>
     </row>
-    <row r="41" spans="1:64" s="49" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A41" s="103"/>
+    <row r="41" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="107"/>
       <c r="B41" s="84" t="str">
         <f>Criteria!B40</f>
         <v>10.14</v>
@@ -17971,7 +17971,7 @@
       <c r="BL41" s="48"/>
     </row>
     <row r="42" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="102" t="str">
+      <c r="A42" s="105" t="str">
         <f>Criteria!$A$41</f>
         <v>FORMS</v>
       </c>
@@ -18050,7 +18050,7 @@
       <c r="BL42" s="48"/>
     </row>
     <row r="43" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A43" s="104"/>
+      <c r="A43" s="106"/>
       <c r="B43" s="46" t="str">
         <f>Criteria!B42</f>
         <v>11.2</v>
@@ -18126,14 +18126,14 @@
       <c r="BL43" s="48"/>
     </row>
     <row r="44" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A44" s="104"/>
+      <c r="A44" s="106"/>
       <c r="B44" s="46" t="str">
         <f>Criteria!B43</f>
         <v>11.5</v>
       </c>
       <c r="C44" s="32" t="str">
         <f>Criteria!C43</f>
-        <v>In each form, are the fields of same kind grouped together, if necessary?</v>
+        <v>In each form, are the related form controls grouped together, if necessary?</v>
       </c>
       <c r="D44" s="82" t="s">
         <v>73</v>
@@ -18202,14 +18202,14 @@
       <c r="BL44" s="48"/>
     </row>
     <row r="45" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A45" s="104"/>
+      <c r="A45" s="106"/>
       <c r="B45" s="46" t="str">
         <f>Criteria!B44</f>
         <v>11.6</v>
       </c>
       <c r="C45" s="32" t="str">
         <f>Criteria!C44</f>
-        <v>In each form, does each group of fields of same kind have a legend?</v>
+        <v>In each form, does each group of related form controls have a legend?</v>
       </c>
       <c r="D45" s="82" t="s">
         <v>73</v>
@@ -18277,15 +18277,15 @@
       <c r="BK45" s="48"/>
       <c r="BL45" s="48"/>
     </row>
-    <row r="46" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="104"/>
+    <row r="46" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A46" s="106"/>
       <c r="B46" s="46" t="str">
         <f>Criteria!B45</f>
         <v>11.7</v>
       </c>
       <c r="C46" s="32" t="str">
         <f>Criteria!C45</f>
-        <v>In each form, is each legend associated with a group of fields of same kind relevant?</v>
+        <v>In each form, is each legend associated with a group of related form controls relevant?</v>
       </c>
       <c r="D46" s="82" t="s">
         <v>73</v>
@@ -18354,14 +18354,14 @@
       <c r="BL46" s="48"/>
     </row>
     <row r="47" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A47" s="104"/>
+      <c r="A47" s="106"/>
       <c r="B47" s="46" t="str">
         <f>Criteria!B46</f>
         <v>11.9</v>
       </c>
       <c r="C47" s="32" t="str">
         <f>Criteria!C46</f>
-        <v>In each form, is the title of each button relevant (excluding special cases)?</v>
+        <v>In each form, is the label of each button relevant (excluding special cases)?</v>
       </c>
       <c r="D47" s="82" t="s">
         <v>73</v>
@@ -18430,14 +18430,14 @@
       <c r="BL47" s="48"/>
     </row>
     <row r="48" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A48" s="103"/>
+      <c r="A48" s="107"/>
       <c r="B48" s="84" t="str">
         <f>Criteria!B47</f>
         <v>11.10</v>
       </c>
       <c r="C48" s="85" t="str">
         <f>Criteria!C47</f>
-        <v>In each form, is the input control used appropriately (excluding special cases)?</v>
+        <v>In each form, is the error management used appropriately (excluding special cases)?</v>
       </c>
       <c r="D48" s="82" t="s">
         <v>73</v>
@@ -18505,8 +18505,8 @@
       <c r="BK48" s="48"/>
       <c r="BL48" s="48"/>
     </row>
-    <row r="49" spans="1:64" s="49" customFormat="1" ht="72.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="102" t="s">
+    <row r="49" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="105" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="81" t="str">
@@ -18515,7 +18515,7 @@
       </c>
       <c r="C49" s="82" t="str">
         <f>Criteria!C48</f>
-        <v>Can content grouping zones present in several web pages header, main navigation, main content, footer and search engine) be reached or avoided?</v>
+        <v>Can content grouping regions present in several web pages header, main navigation, main content, footer and search engine) be reached or avoided?</v>
       </c>
       <c r="D49" s="82" t="s">
         <v>73</v>
@@ -18583,8 +18583,8 @@
       <c r="BK49" s="48"/>
       <c r="BL49" s="48"/>
     </row>
-    <row r="50" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="104"/>
+    <row r="50" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A50" s="106"/>
       <c r="B50" s="46" t="str">
         <f>Criteria!B49</f>
         <v>12.7</v>
@@ -18659,15 +18659,15 @@
       <c r="BK50" s="48"/>
       <c r="BL50" s="48"/>
     </row>
-    <row r="51" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A51" s="104"/>
+    <row r="51" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="106"/>
       <c r="B51" s="46" t="str">
         <f>Criteria!B50</f>
         <v>12.8</v>
       </c>
       <c r="C51" s="32" t="str">
         <f>Criteria!C50</f>
-        <v>On each web page, is the tab order consistent?</v>
+        <v>On each web page, is the navigation sequence consistent?</v>
       </c>
       <c r="D51" s="82" t="s">
         <v>73</v>
@@ -18735,8 +18735,8 @@
       <c r="BK51" s="48"/>
       <c r="BL51" s="48"/>
     </row>
-    <row r="52" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="104"/>
+    <row r="52" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A52" s="106"/>
       <c r="B52" s="46" t="str">
         <f>Criteria!B51</f>
         <v>12.9</v>
@@ -18812,7 +18812,7 @@
       <c r="BL52" s="48"/>
     </row>
     <row r="53" spans="1:64" s="49" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A53" s="103"/>
+      <c r="A53" s="107"/>
       <c r="B53" s="84" t="str">
         <f>Criteria!B52</f>
         <v>12.11</v>
@@ -18888,7 +18888,7 @@
       <c r="BL53" s="48"/>
     </row>
     <row r="54" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="102" t="str">
+      <c r="A54" s="105" t="str">
         <f>Criteria!$A$53</f>
         <v>CONSULTATION</v>
       </c>
@@ -18966,15 +18966,15 @@
       <c r="BK54" s="48"/>
       <c r="BL54" s="48"/>
     </row>
-    <row r="55" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="104"/>
+    <row r="55" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="A55" s="106"/>
       <c r="B55" s="46" t="str">
         <f>Criteria!B54</f>
         <v>13.7</v>
       </c>
       <c r="C55" s="32" t="str">
         <f>Criteria!C54</f>
-        <v>On each web page, are sudden changes in brightness or flashing effects used correctly?</v>
+        <v>On each web page, are sudden changes in brightness or blinking used correctly?</v>
       </c>
       <c r="D55" s="82" t="s">
         <v>73</v>
@@ -19043,14 +19043,14 @@
       <c r="BL55" s="48"/>
     </row>
     <row r="56" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A56" s="103"/>
+      <c r="A56" s="107"/>
       <c r="B56" s="84" t="str">
         <f>Criteria!B55</f>
         <v>13.8</v>
       </c>
       <c r="C56" s="85" t="str">
         <f>Criteria!C55</f>
-        <v>On each web page, is every moving or flashing content controllable by the user?</v>
+        <v>On each web page, is every moving or blinking content controllable by the user?</v>
       </c>
       <c r="D56" s="82" t="s">
         <v>73</v>
@@ -19120,6 +19120,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A49:A53"/>
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
@@ -19127,12 +19133,6 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A49:A53"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D56">
     <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">

--- a/src/files/en/general/template-grille-audit-simplifie.xlsx
+++ b/src/files/en/general/template-grille-audit-simplifie.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sip\accessibilite.public.lu\src\files\en\general\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IFI774\ProjectsACC\accessibilite.public.lu\src\files\en\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E2FE83-90A0-4020-8050-55BD97C2AF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2454FF93-992A-445D-9334-E633200B402A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-8160" windowWidth="38620" windowHeight="21360" tabRatio="861" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="861" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="2" r:id="rId1"/>
-    <sheet name="CalculationBase" sheetId="5" r:id="rId2"/>
+    <sheet name="CalculationBase" sheetId="5" state="hidden" r:id="rId2"/>
     <sheet name="Results" sheetId="22" r:id="rId3"/>
     <sheet name="Criteria" sheetId="3" r:id="rId4"/>
     <sheet name="Overview" sheetId="4" r:id="rId5"/>
-    <sheet name="Scale" sheetId="23" r:id="rId6"/>
+    <sheet name="Scale" sheetId="23" state="hidden" r:id="rId6"/>
     <sheet name="P01" sheetId="6" r:id="rId7"/>
     <sheet name="P02" sheetId="7" r:id="rId8"/>
     <sheet name="P03" sheetId="8" r:id="rId9"/>
@@ -1511,6 +1511,15 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="12" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1523,34 +1532,25 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2184,47 +2184,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.3046875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="7.33203125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.07421875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="39.3046875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="68.84375" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="7.3046875" style="15"/>
+    <col min="1" max="1" width="11.109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="68.88671875" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="7.33203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
         <v>109</v>
       </c>
       <c r="B1" s="93"/>
       <c r="C1" s="93"/>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="89" t="s">
         <v>100</v>
       </c>
       <c r="B3" s="92"/>
       <c r="C3" s="92"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="92"/>
       <c r="C4" s="92"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="86" t="s">
         <v>111</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>2</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>3</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>4</v>
       </c>
@@ -2292,28 +2292,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE75"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.3046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.3046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.84375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.69140625" style="3" customWidth="1"/>
-    <col min="5" max="7" width="5.53515625" style="7" customWidth="1"/>
-    <col min="8" max="11" width="5.07421875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="9.53515625" style="1"/>
-    <col min="13" max="14" width="5.3046875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="22.84375" style="1" customWidth="1"/>
-    <col min="16" max="18" width="5.53515625" style="7" customWidth="1"/>
-    <col min="19" max="19" width="7.3046875" style="8" customWidth="1"/>
-    <col min="20" max="31" width="9.53515625" style="1"/>
-    <col min="991" max="991" width="7.3046875" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="3" customWidth="1"/>
+    <col min="5" max="7" width="5.5546875" style="7" customWidth="1"/>
+    <col min="8" max="11" width="5.109375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" style="1"/>
+    <col min="13" max="14" width="5.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.88671875" style="1" customWidth="1"/>
+    <col min="16" max="18" width="5.5546875" style="7" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" style="8" customWidth="1"/>
+    <col min="20" max="31" width="9.5546875" style="1"/>
+    <col min="991" max="991" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D1" s="3" t="s">
         <v>83</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2382,7 +2382,7 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>1</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>1</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>1</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>1</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>1</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>3</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>3</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>4</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>4</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>4</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>4</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>4</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>4</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>4</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>4</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>5</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>5</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>6</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>6</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>7</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" s="71" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>8</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>8</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>8</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>8</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>8</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>8</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>8</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>8</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>9</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>9</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -5175,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>10</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>10</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>10</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>10</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>10</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>11</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>11</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>11</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>11</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>11</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>11</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>11</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>12</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>12</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>12</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <v>12</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <v>12</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>13</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <v>13</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <v>13</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21" t="s">
@@ -6863,7 +6863,7 @@
       <c r="AD69" s="3"/>
       <c r="AE69" s="3"/>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21" t="s">
@@ -6907,7 +6907,7 @@
       <c r="AD70" s="3"/>
       <c r="AE70" s="3"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21" t="s">
@@ -6951,7 +6951,7 @@
       <c r="AD71" s="3"/>
       <c r="AE71" s="3"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21" t="s">
@@ -6998,7 +6998,7 @@
       <c r="AD72" s="3"/>
       <c r="AE72" s="3"/>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E74" s="7" t="e">
         <f>E72*100</f>
         <v>#VALUE!</v>
@@ -7012,7 +7012,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E75" s="7" t="e">
         <f>IF(AND(E74&gt;=Scale!$A$2, E74&lt;Scale!$B$2), Scale!$C$2, IF(AND(E74&gt;=Scale!$A$3, E74&lt;Scale!$B$3), Scale!$C$3, IF(AND(E74&gt;=Scale!$A$4, E74&lt;Scale!$B$4), Scale!$C$4, IF(AND(E74&gt;=Scale!$A$5, E74&lt;Scale!$B$5), Scale!$C$5, IF(AND(E74&gt;=Scale!$A$6, E74&lt;=Scale!$B$6), Scale!$C$6, "" ) ) ) ) )</f>
         <v>#VALUE!</v>
@@ -7043,23 +7043,23 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.07421875" customWidth="1"/>
-    <col min="3" max="3" width="17.84375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.84375" customWidth="1"/>
-    <col min="5" max="5" width="13.84375" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.84375" customWidth="1"/>
-    <col min="9" max="9" width="7.07421875" customWidth="1"/>
-    <col min="10" max="10" width="8.84375" customWidth="1"/>
-    <col min="11" max="11" width="8.84375" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="3" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="6.69140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="93" t="s">
         <v>113</v>
       </c>
@@ -7075,8 +7075,8 @@
       <c r="K1" s="93"/>
       <c r="L1" s="93"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="93" t="s">
         <v>87</v>
       </c>
@@ -7096,7 +7096,7 @@
       <c r="L3" s="93"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>116</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D5" s="87" t="s">
         <v>2</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="87" t="s">
         <v>3</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="D7" s="88" t="s">
@@ -7242,7 +7242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G8" s="65" t="s">
         <v>17</v>
       </c>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="M8" s="51"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="54"/>
       <c r="C9" s="55"/>
       <c r="D9" s="3"/>
@@ -7301,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="54"/>
       <c r="B10" s="3"/>
       <c r="C10" s="55"/>
@@ -7335,7 +7335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="G11" s="65" t="s">
@@ -7366,7 +7366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G12" s="65" t="s">
         <v>34</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G13" s="65" t="s">
         <v>40</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G14" s="65" t="s">
         <v>43</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G15" s="65" t="s">
         <v>49</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G16" s="65" t="s">
         <v>57</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G17" s="67" t="s">
         <v>63</v>
       </c>
@@ -7540,16 +7540,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M18" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
     </row>
   </sheetData>
@@ -7568,30 +7568,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BL55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.3046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.3046875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="76.84375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="9.53515625" style="5"/>
-    <col min="6" max="6" width="9.53515625" style="1"/>
-    <col min="7" max="64" width="9.53515625" style="5"/>
-    <col min="1024" max="1024" width="7.3046875" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="76.88671875" style="5" customWidth="1"/>
+    <col min="4" max="5" width="9.5546875" style="5"/>
+    <col min="6" max="6" width="9.5546875" style="1"/>
+    <col min="7" max="64" width="9.5546875" style="5"/>
+    <col min="1024" max="1024" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="98" t="str">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="94" t="str">
         <f>Sample!A1</f>
         <v>SIMPLIFIED AUDIT – ASSESSMENT GRID</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="100"/>
-    </row>
-    <row r="2" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="95"/>
+      <c r="C1" s="96"/>
+    </row>
+    <row r="2" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>106</v>
       </c>
@@ -7602,8 +7602,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="s">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="97" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="57" t="s">
@@ -7614,8 +7614,8 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="94"/>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="97"/>
       <c r="B4" s="57" t="s">
         <v>7</v>
       </c>
@@ -7624,8 +7624,8 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="94"/>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="97"/>
       <c r="B5" s="57" t="s">
         <v>8</v>
       </c>
@@ -7634,8 +7634,8 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="94"/>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="97"/>
       <c r="B6" s="57" t="s">
         <v>9</v>
       </c>
@@ -7644,8 +7644,8 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="94"/>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="97"/>
       <c r="B7" s="57" t="s">
         <v>10</v>
       </c>
@@ -7654,8 +7654,8 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="94"/>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="97"/>
       <c r="B8" s="57" t="s">
         <v>11</v>
       </c>
@@ -7664,8 +7664,8 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="94"/>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="97"/>
       <c r="B9" s="57" t="s">
         <v>12</v>
       </c>
@@ -7674,7 +7674,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="42.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
         <v>117</v>
       </c>
@@ -7686,8 +7686,8 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="94" t="s">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="97" t="s">
         <v>118</v>
       </c>
       <c r="B11" s="57" t="s">
@@ -7698,8 +7698,8 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="94"/>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="97"/>
       <c r="B12" s="57" t="s">
         <v>16</v>
       </c>
@@ -7708,8 +7708,8 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="94" t="s">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="97" t="s">
         <v>119</v>
       </c>
       <c r="B13" s="57" t="s">
@@ -7720,8 +7720,8 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="94"/>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="97"/>
       <c r="B14" s="57" t="s">
         <v>19</v>
       </c>
@@ -7730,8 +7730,8 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="94"/>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="97"/>
       <c r="B15" s="57" t="s">
         <v>20</v>
       </c>
@@ -7740,8 +7740,8 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="94"/>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="97"/>
       <c r="B16" s="57" t="s">
         <v>21</v>
       </c>
@@ -7750,8 +7750,8 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A17" s="94"/>
+    <row r="17" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="97"/>
       <c r="B17" s="57" t="s">
         <v>22</v>
       </c>
@@ -7760,8 +7760,8 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A18" s="94"/>
+    <row r="18" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="97"/>
       <c r="B18" s="57" t="s">
         <v>23</v>
       </c>
@@ -7770,8 +7770,8 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A19" s="94"/>
+    <row r="19" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="97"/>
       <c r="B19" s="57" t="s">
         <v>24</v>
       </c>
@@ -7780,8 +7780,8 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A20" s="94"/>
+    <row r="20" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="97"/>
       <c r="B20" s="57" t="s">
         <v>25</v>
       </c>
@@ -7790,8 +7790,8 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A21" s="94" t="s">
+    <row r="21" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="97" t="s">
         <v>120</v>
       </c>
       <c r="B21" s="57" t="s">
@@ -7802,8 +7802,8 @@
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:64" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="94"/>
+    <row r="22" spans="1:64" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="97"/>
       <c r="B22" s="57" t="s">
         <v>28</v>
       </c>
@@ -7812,8 +7812,8 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A23" s="94" t="s">
+    <row r="23" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="97" t="s">
         <v>121</v>
       </c>
       <c r="B23" s="57" t="s">
@@ -7824,8 +7824,8 @@
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A24" s="94"/>
+    <row r="24" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="97"/>
       <c r="B24" s="57" t="s">
         <v>31</v>
       </c>
@@ -7834,7 +7834,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:64" ht="41.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" ht="42" x14ac:dyDescent="0.2">
       <c r="A25" s="56" t="s">
         <v>32</v>
       </c>
@@ -7846,7 +7846,7 @@
       </c>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:64" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="72"/>
       <c r="B26" s="57">
         <v>8.1</v>
@@ -7915,8 +7915,8 @@
       <c r="BK26" s="5"/>
       <c r="BL26" s="5"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="95" t="s">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="98" t="s">
         <v>122</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -7986,8 +7986,8 @@
       <c r="BK27" s="5"/>
       <c r="BL27" s="5"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="96"/>
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="99"/>
       <c r="B28" s="31" t="s">
         <v>86</v>
       </c>
@@ -8055,8 +8055,8 @@
       <c r="BK28" s="5"/>
       <c r="BL28" s="5"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A29" s="96"/>
+    <row r="29" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="99"/>
       <c r="B29" s="57" t="s">
         <v>35</v>
       </c>
@@ -8065,8 +8065,8 @@
       </c>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A30" s="96"/>
+    <row r="30" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="99"/>
       <c r="B30" s="57" t="s">
         <v>36</v>
       </c>
@@ -8075,8 +8075,8 @@
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A31" s="96"/>
+    <row r="31" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="99"/>
       <c r="B31" s="57" t="s">
         <v>37</v>
       </c>
@@ -8085,8 +8085,8 @@
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A32" s="96"/>
+    <row r="32" spans="1:64" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="99"/>
       <c r="B32" s="57" t="s">
         <v>38</v>
       </c>
@@ -8095,8 +8095,8 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="97"/>
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="100"/>
       <c r="B33" s="57" t="s">
         <v>39</v>
       </c>
@@ -8105,8 +8105,8 @@
       </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="94" t="s">
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="97" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="57" t="s">
@@ -8117,8 +8117,8 @@
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="94"/>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="97"/>
       <c r="B35" s="57" t="s">
         <v>42</v>
       </c>
@@ -8127,8 +8127,8 @@
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="94" t="s">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="97" t="s">
         <v>123</v>
       </c>
       <c r="B36" s="57" t="s">
@@ -8139,8 +8139,8 @@
       </c>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="94"/>
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="97"/>
       <c r="B37" s="57" t="s">
         <v>45</v>
       </c>
@@ -8149,8 +8149,8 @@
       </c>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="94"/>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" s="97"/>
       <c r="B38" s="57" t="s">
         <v>46</v>
       </c>
@@ -8159,8 +8159,8 @@
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="94"/>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="97"/>
       <c r="B39" s="57" t="s">
         <v>47</v>
       </c>
@@ -8169,8 +8169,8 @@
       </c>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="94"/>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="97"/>
       <c r="B40" s="57" t="s">
         <v>48</v>
       </c>
@@ -8179,8 +8179,8 @@
       </c>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="94" t="s">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="97" t="s">
         <v>124</v>
       </c>
       <c r="B41" s="57" t="s">
@@ -8191,8 +8191,8 @@
       </c>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="94"/>
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="97"/>
       <c r="B42" s="57" t="s">
         <v>51</v>
       </c>
@@ -8201,8 +8201,8 @@
       </c>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="94"/>
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="97"/>
       <c r="B43" s="57" t="s">
         <v>52</v>
       </c>
@@ -8211,8 +8211,8 @@
       </c>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="94"/>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="97"/>
       <c r="B44" s="57" t="s">
         <v>53</v>
       </c>
@@ -8221,8 +8221,8 @@
       </c>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="94"/>
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="97"/>
       <c r="B45" s="57" t="s">
         <v>54</v>
       </c>
@@ -8231,8 +8231,8 @@
       </c>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="94"/>
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="97"/>
       <c r="B46" s="57" t="s">
         <v>55</v>
       </c>
@@ -8241,8 +8241,8 @@
       </c>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="94"/>
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="97"/>
       <c r="B47" s="57" t="s">
         <v>56</v>
       </c>
@@ -8251,8 +8251,8 @@
       </c>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="94" t="s">
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" s="97" t="s">
         <v>57</v>
       </c>
       <c r="B48" s="57" t="s">
@@ -8263,8 +8263,8 @@
       </c>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="94"/>
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="97"/>
       <c r="B49" s="57" t="s">
         <v>59</v>
       </c>
@@ -8273,8 +8273,8 @@
       </c>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="94"/>
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="97"/>
       <c r="B50" s="57" t="s">
         <v>60</v>
       </c>
@@ -8283,8 +8283,8 @@
       </c>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="94"/>
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="97"/>
       <c r="B51" s="57" t="s">
         <v>61</v>
       </c>
@@ -8293,8 +8293,8 @@
       </c>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="94"/>
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A52" s="97"/>
       <c r="B52" s="57" t="s">
         <v>62</v>
       </c>
@@ -8303,8 +8303,8 @@
       </c>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A53" s="94" t="s">
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A53" s="97" t="s">
         <v>63</v>
       </c>
       <c r="B53" s="57" t="s">
@@ -8315,8 +8315,8 @@
       </c>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="94"/>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="97"/>
       <c r="B54" s="57" t="s">
         <v>65</v>
       </c>
@@ -8325,8 +8325,8 @@
       </c>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="94"/>
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="97"/>
       <c r="B55" s="57" t="s">
         <v>66</v>
       </c>
@@ -8337,11 +8337,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="A36:A40"/>
     <mergeCell ref="A41:A47"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="A53:A55"/>
@@ -8349,6 +8344,11 @@
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A36:A40"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.53263888888888899" bottom="0.39374999999999999" header="0.39374999999999999" footer="0.39374999999999999"/>
   <pageSetup scale="74" pageOrder="overThenDown" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8366,21 +8366,21 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.3046875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="7.33203125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.53515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="5.69140625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="15" customWidth="1"/>
     <col min="3" max="12" width="5" style="21" customWidth="1"/>
     <col min="13" max="13" width="5" style="15" customWidth="1"/>
-    <col min="14" max="14" width="4.07421875" style="15" customWidth="1"/>
-    <col min="15" max="15" width="4.84375" style="15" customWidth="1"/>
-    <col min="16" max="16" width="1.84375" style="15" customWidth="1"/>
-    <col min="17" max="17" width="4.84375" style="15" customWidth="1"/>
-    <col min="18" max="18" width="5.84375" style="15" customWidth="1"/>
-    <col min="19" max="16384" width="7.3046875" style="15"/>
+    <col min="14" max="14" width="4.109375" style="15" customWidth="1"/>
+    <col min="15" max="15" width="4.88671875" style="15" customWidth="1"/>
+    <col min="16" max="16" width="1.88671875" style="15" customWidth="1"/>
+    <col min="17" max="17" width="4.88671875" style="15" customWidth="1"/>
+    <col min="18" max="18" width="5.88671875" style="15" customWidth="1"/>
+    <col min="19" max="16384" width="7.33203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="str">
         <f>Sample!A1</f>
         <v>SIMPLIFIED AUDIT – ASSESSMENT GRID</v>
@@ -8400,7 +8400,7 @@
       <c r="N1" s="93"/>
       <c r="O1" s="93"/>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
         <v>67</v>
       </c>
@@ -8419,7 +8419,7 @@
       <c r="N2" s="93"/>
       <c r="O2" s="93"/>
     </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="101" t="s">
         <v>68</v>
       </c>
@@ -8466,7 +8466,7 @@
       <c r="Q3" s="33"/>
       <c r="R3" s="33"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="101"/>
       <c r="C4" s="102"/>
@@ -8486,7 +8486,7 @@
       <c r="Q4" s="33"/>
       <c r="R4" s="33"/>
     </row>
-    <row r="5" spans="1:18" ht="59.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="59.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="101"/>
       <c r="C5" s="102"/>
@@ -8506,7 +8506,7 @@
       <c r="Q5" s="33"/>
       <c r="R5" s="33"/>
     </row>
-    <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="34" t="s">
         <v>69</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="37" t="s">
         <v>70</v>
@@ -8637,7 +8637,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="40" t="s">
         <v>71</v>
@@ -8703,7 +8703,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="43" t="s">
         <v>72</v>
@@ -8769,7 +8769,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="43" t="s">
         <v>73</v>
@@ -8835,7 +8835,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -8851,162 +8851,162 @@
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="53" t="str">
         <f>IF(Q10=0,ROUND(COUNTIF(CalculationBase!L3:L67,"C")/(COUNTIF(CalculationBase!L3:L67,"C")+COUNTIF(CalculationBase!L3:L67,"NC"))*100, 2)&amp;"%","Percentage unavailable: "&amp;Q10&amp;" NT criteria remain.")</f>
         <v>Percentage unavailable: 159 NT criteria remain.</v>
       </c>
       <c r="C15" s="22"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C16" s="22"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="str">
         <f>IF(Q10=0,ROUND(AVERAGEIF(CalculationBase!E72:G72,"&lt;&gt;NA")*100,1)&amp;"%","Percentage unavailable: "&amp;Q10&amp;" NT criteria remain.")</f>
         <v>Percentage unavailable: 159 NT criteria remain.</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="e">
         <f>B15*100</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="e">
         <f>IF(AND(Overview!B20&gt;=Scale!A2, Overview!B20&lt;Scale!B2), Scale!C2, IF(AND(Overview!B20&gt;=Scale!A3, Overview!B20&lt;Scale!B3), Scale!C3, IF(AND(Overview!B20&gt;=Scale!A4, Overview!B20&lt;Scale!B4), Scale!C4, IF(AND(Overview!B20&gt;=Scale!A5, Overview!B20&lt;Scale!B5), Scale!C5, IF(AND(Overview!B20&gt;=Scale!A6, Overview!B20&lt;=Scale!B6), Scale!C6, "" ) ) ) ) )</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="21">
         <v>1</v>
       </c>
@@ -9046,12 +9046,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.84375" style="3"/>
+    <col min="1" max="2" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>90</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>20</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>40</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>60</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>80</v>
       </c>
@@ -9128,23 +9128,23 @@
   <dimension ref="A1:AMI56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.69140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69140625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="39.84375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="3.84375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="3.07421875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="79.84375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.84375" style="5" customWidth="1"/>
-    <col min="8" max="64" width="9.53515625" style="5"/>
-    <col min="1024" max="1024" width="7.3046875" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="3.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="79.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" style="5" customWidth="1"/>
+    <col min="8" max="64" width="9.5546875" style="5"/>
+    <col min="1024" max="1024" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1023" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="93" t="str">
         <f>Sample!A1</f>
         <v>SIMPLIFIED AUDIT – ASSESSMENT GRID</v>
@@ -9156,7 +9156,7 @@
       <c r="F1" s="93"/>
       <c r="G1" s="93"/>
     </row>
-    <row r="2" spans="1:1023" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A2" s="108" t="str">
         <f>CONCATENATE(Sample!B7," : ",Sample!C7)</f>
         <v>Page title 1 : https:///www.example.com/1.html</v>
@@ -9168,7 +9168,7 @@
       <c r="F2" s="108"/>
       <c r="G2" s="108"/>
     </row>
-    <row r="3" spans="1:1023" ht="57" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1023" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>106</v>
       </c>
@@ -9248,8 +9248,8 @@
       <c r="BK3" s="2"/>
       <c r="BL3" s="2"/>
     </row>
-    <row r="4" spans="1:1023" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="106" t="str">
+    <row r="4" spans="1:1023" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="105" t="str">
         <f>Criteria!$A$3</f>
         <v>IMAGES</v>
       </c>
@@ -9327,8 +9327,8 @@
       <c r="BK4" s="2"/>
       <c r="BL4" s="2"/>
     </row>
-    <row r="5" spans="1:1023" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="106"/>
+    <row r="5" spans="1:1023" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="105"/>
       <c r="B5" s="46" t="str">
         <f>Criteria!B4</f>
         <v>1.2</v>
@@ -9409,8 +9409,8 @@
       <c r="AMH5" s="14"/>
       <c r="AMI5" s="14"/>
     </row>
-    <row r="6" spans="1:1023" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="106"/>
+    <row r="6" spans="1:1023" ht="45" x14ac:dyDescent="0.2">
+      <c r="A6" s="105"/>
       <c r="B6" s="46" t="str">
         <f>Criteria!B5</f>
         <v>1.3</v>
@@ -9485,8 +9485,8 @@
       <c r="BK6" s="2"/>
       <c r="BL6" s="2"/>
     </row>
-    <row r="7" spans="1:1023" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="106"/>
+    <row r="7" spans="1:1023" ht="45" x14ac:dyDescent="0.2">
+      <c r="A7" s="105"/>
       <c r="B7" s="46" t="str">
         <f>Criteria!B6</f>
         <v>1.4</v>
@@ -9504,8 +9504,8 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:1023" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="106"/>
+    <row r="8" spans="1:1023" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="105"/>
       <c r="B8" s="46" t="str">
         <f>Criteria!B7</f>
         <v>1.5</v>
@@ -9523,8 +9523,8 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:1023" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="106"/>
+    <row r="9" spans="1:1023" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="105"/>
       <c r="B9" s="46" t="str">
         <f>Criteria!B8</f>
         <v>1.6</v>
@@ -9542,8 +9542,8 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:1023" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="94"/>
+    <row r="10" spans="1:1023" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="97"/>
       <c r="B10" s="74" t="str">
         <f>Criteria!B9</f>
         <v>1.7</v>
@@ -9561,7 +9561,7 @@
       <c r="F10" s="75"/>
       <c r="G10" s="75"/>
     </row>
-    <row r="11" spans="1:1023" ht="42.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1023" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A11" s="78" t="str">
         <f>Criteria!$A$10</f>
         <v>FRAMES</v>
@@ -9583,8 +9583,8 @@
       <c r="F11" s="80"/>
       <c r="G11" s="80"/>
     </row>
-    <row r="12" spans="1:1023" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="96" t="str">
+    <row r="12" spans="1:1023" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="99" t="str">
         <f>Criteria!$A$11</f>
         <v>COLOURS</v>
       </c>
@@ -9605,8 +9605,8 @@
       <c r="F12" s="77"/>
       <c r="G12" s="77"/>
     </row>
-    <row r="13" spans="1:1023" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="94"/>
+    <row r="13" spans="1:1023" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" s="97"/>
       <c r="B13" s="74" t="str">
         <f>Criteria!B12</f>
         <v>3.2</v>
@@ -9624,8 +9624,8 @@
       <c r="F13" s="75"/>
       <c r="G13" s="75"/>
     </row>
-    <row r="14" spans="1:1023" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="105" t="str">
+    <row r="14" spans="1:1023" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="103" t="str">
         <f>Criteria!$A$13</f>
         <v>MULTIMEDIA</v>
       </c>
@@ -9646,8 +9646,8 @@
       <c r="F14" s="82"/>
       <c r="G14" s="82"/>
     </row>
-    <row r="15" spans="1:1023" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="106"/>
+    <row r="15" spans="1:1023" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" s="105"/>
       <c r="B15" s="46" t="str">
         <f>Criteria!B14</f>
         <v>4.2</v>
@@ -9665,8 +9665,8 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:1023" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="106"/>
+    <row r="16" spans="1:1023" ht="45" x14ac:dyDescent="0.2">
+      <c r="A16" s="105"/>
       <c r="B16" s="46" t="str">
         <f>Criteria!B15</f>
         <v>4.3</v>
@@ -9684,8 +9684,8 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:64" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="106"/>
+    <row r="17" spans="1:64" ht="45" x14ac:dyDescent="0.2">
+      <c r="A17" s="105"/>
       <c r="B17" s="46" t="str">
         <f>Criteria!B16</f>
         <v>4.4</v>
@@ -9703,8 +9703,8 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:64" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="106"/>
+    <row r="18" spans="1:64" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="105"/>
       <c r="B18" s="46" t="str">
         <f>Criteria!B17</f>
         <v>4.8</v>
@@ -9722,8 +9722,8 @@
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="1:64" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="106"/>
+    <row r="19" spans="1:64" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="105"/>
       <c r="B19" s="46" t="str">
         <f>Criteria!B18</f>
         <v>4.9</v>
@@ -9741,8 +9741,8 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:64" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="106"/>
+    <row r="20" spans="1:64" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="105"/>
       <c r="B20" s="46" t="str">
         <f>Criteria!B19</f>
         <v>4.10</v>
@@ -9760,8 +9760,8 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="1:64" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="107"/>
+    <row r="21" spans="1:64" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="104"/>
       <c r="B21" s="84" t="str">
         <f>Criteria!B20</f>
         <v>4.11</v>
@@ -9779,8 +9779,8 @@
       <c r="F21" s="85"/>
       <c r="G21" s="85"/>
     </row>
-    <row r="22" spans="1:64" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="105" t="s">
+    <row r="22" spans="1:64" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="103" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="81" t="str">
@@ -9800,8 +9800,8 @@
       <c r="F22" s="82"/>
       <c r="G22" s="82"/>
     </row>
-    <row r="23" spans="1:64" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="107"/>
+    <row r="23" spans="1:64" ht="45" x14ac:dyDescent="0.2">
+      <c r="A23" s="104"/>
       <c r="B23" s="84" t="str">
         <f>Criteria!B22</f>
         <v>5.7</v>
@@ -9819,8 +9819,8 @@
       <c r="F23" s="85"/>
       <c r="G23" s="85"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A24" s="105" t="str">
+    <row r="24" spans="1:64" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="103" t="str">
         <f>Criteria!$A$23</f>
         <v>LINKS</v>
       </c>
@@ -9841,8 +9841,8 @@
       <c r="F24" s="82"/>
       <c r="G24" s="82"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A25" s="107"/>
+    <row r="25" spans="1:64" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="104"/>
       <c r="B25" s="84" t="str">
         <f>Criteria!B24</f>
         <v>6.2</v>
@@ -9860,7 +9860,7 @@
       <c r="F25" s="85"/>
       <c r="G25" s="85"/>
     </row>
-    <row r="26" spans="1:64" ht="41.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64" ht="42" x14ac:dyDescent="0.2">
       <c r="A26" s="78" t="s">
         <v>32</v>
       </c>
@@ -9881,8 +9881,8 @@
       <c r="F26" s="80"/>
       <c r="G26" s="80"/>
     </row>
-    <row r="27" spans="1:64" s="71" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="103" t="s">
+    <row r="27" spans="1:64" s="71" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="106" t="s">
         <v>92</v>
       </c>
       <c r="B27" s="81">
@@ -9958,8 +9958,8 @@
       <c r="BK27" s="5"/>
       <c r="BL27" s="5"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="95"/>
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="98"/>
       <c r="B28" s="46" t="str">
         <f>Criteria!B27</f>
         <v>8.2</v>
@@ -10034,8 +10034,8 @@
       <c r="BK28" s="5"/>
       <c r="BL28" s="5"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="95"/>
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="98"/>
       <c r="B29" s="46" t="str">
         <f>Criteria!B28</f>
         <v>8.3</v>
@@ -10110,8 +10110,8 @@
       <c r="BK29" s="5"/>
       <c r="BL29" s="5"/>
     </row>
-    <row r="30" spans="1:64" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="95"/>
+    <row r="30" spans="1:64" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="98"/>
       <c r="B30" s="46" t="str">
         <f>Criteria!B29</f>
         <v>8.4</v>
@@ -10129,8 +10129,8 @@
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A31" s="95"/>
+    <row r="31" spans="1:64" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="98"/>
       <c r="B31" s="46" t="str">
         <f>Criteria!B30</f>
         <v>8.5</v>
@@ -10148,8 +10148,8 @@
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
     </row>
-    <row r="32" spans="1:64" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="95"/>
+    <row r="32" spans="1:64" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="98"/>
       <c r="B32" s="46" t="str">
         <f>Criteria!B31</f>
         <v>8.6</v>
@@ -10167,8 +10167,8 @@
       <c r="F32" s="32"/>
       <c r="G32" s="32"/>
     </row>
-    <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="95"/>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="98"/>
       <c r="B33" s="46" t="str">
         <f>Criteria!B32</f>
         <v>8.7</v>
@@ -10186,8 +10186,8 @@
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
     </row>
-    <row r="34" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="104"/>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="107"/>
       <c r="B34" s="84" t="str">
         <f>Criteria!B33</f>
         <v>8.8</v>
@@ -10205,8 +10205,8 @@
       <c r="F34" s="85"/>
       <c r="G34" s="85"/>
     </row>
-    <row r="35" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="105" t="str">
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="103" t="str">
         <f>Criteria!$A$34</f>
         <v>STRUCTURATION</v>
       </c>
@@ -10227,8 +10227,8 @@
       <c r="F35" s="82"/>
       <c r="G35" s="82"/>
     </row>
-    <row r="36" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="107"/>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="104"/>
       <c r="B36" s="84" t="str">
         <f>Criteria!B35</f>
         <v>9.2</v>
@@ -10246,8 +10246,8 @@
       <c r="F36" s="85"/>
       <c r="G36" s="85"/>
     </row>
-    <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="105" t="s">
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="103" t="s">
         <v>93</v>
       </c>
       <c r="B37" s="81" t="str">
@@ -10267,8 +10267,8 @@
       <c r="F37" s="82"/>
       <c r="G37" s="82"/>
     </row>
-    <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="106"/>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" s="105"/>
       <c r="B38" s="46" t="str">
         <f>Criteria!B37</f>
         <v>10.8</v>
@@ -10286,8 +10286,8 @@
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
     </row>
-    <row r="39" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="106"/>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="105"/>
       <c r="B39" s="46" t="str">
         <f>Criteria!B38</f>
         <v>10.9</v>
@@ -10305,8 +10305,8 @@
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
     </row>
-    <row r="40" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="106"/>
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A40" s="105"/>
       <c r="B40" s="46" t="str">
         <f>Criteria!B39</f>
         <v>10.10</v>
@@ -10324,8 +10324,8 @@
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
     </row>
-    <row r="41" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="107"/>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A41" s="104"/>
       <c r="B41" s="84" t="str">
         <f>Criteria!B40</f>
         <v>10.14</v>
@@ -10343,8 +10343,8 @@
       <c r="F41" s="85"/>
       <c r="G41" s="85"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="105" t="str">
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="103" t="str">
         <f>Criteria!$A$41</f>
         <v>FORMS</v>
       </c>
@@ -10365,8 +10365,8 @@
       <c r="F42" s="82"/>
       <c r="G42" s="82"/>
     </row>
-    <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="106"/>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="105"/>
       <c r="B43" s="46" t="str">
         <f>Criteria!B42</f>
         <v>11.2</v>
@@ -10384,8 +10384,8 @@
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
     </row>
-    <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="106"/>
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A44" s="105"/>
       <c r="B44" s="46" t="str">
         <f>Criteria!B43</f>
         <v>11.5</v>
@@ -10403,8 +10403,8 @@
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
     </row>
-    <row r="45" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="106"/>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A45" s="105"/>
       <c r="B45" s="46" t="str">
         <f>Criteria!B44</f>
         <v>11.6</v>
@@ -10422,8 +10422,8 @@
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
     </row>
-    <row r="46" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="106"/>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" s="105"/>
       <c r="B46" s="46" t="str">
         <f>Criteria!B45</f>
         <v>11.7</v>
@@ -10441,8 +10441,8 @@
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
     </row>
-    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="106"/>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A47" s="105"/>
       <c r="B47" s="46" t="str">
         <f>Criteria!B46</f>
         <v>11.9</v>
@@ -10460,8 +10460,8 @@
       <c r="F47" s="32"/>
       <c r="G47" s="32"/>
     </row>
-    <row r="48" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="107"/>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" s="104"/>
       <c r="B48" s="84" t="str">
         <f>Criteria!B47</f>
         <v>11.10</v>
@@ -10479,8 +10479,8 @@
       <c r="F48" s="85"/>
       <c r="G48" s="85"/>
     </row>
-    <row r="49" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="105" t="s">
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A49" s="103" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="81" t="str">
@@ -10500,8 +10500,8 @@
       <c r="F49" s="82"/>
       <c r="G49" s="82"/>
     </row>
-    <row r="50" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="106"/>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A50" s="105"/>
       <c r="B50" s="46" t="str">
         <f>Criteria!B49</f>
         <v>12.7</v>
@@ -10519,8 +10519,8 @@
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="106"/>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A51" s="105"/>
       <c r="B51" s="46" t="str">
         <f>Criteria!B50</f>
         <v>12.8</v>
@@ -10538,8 +10538,8 @@
       <c r="F51" s="32"/>
       <c r="G51" s="32"/>
     </row>
-    <row r="52" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="106"/>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A52" s="105"/>
       <c r="B52" s="46" t="str">
         <f>Criteria!B51</f>
         <v>12.9</v>
@@ -10557,8 +10557,8 @@
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
     </row>
-    <row r="53" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A53" s="107"/>
+    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.2">
+      <c r="A53" s="104"/>
       <c r="B53" s="84" t="str">
         <f>Criteria!B52</f>
         <v>12.11</v>
@@ -10576,8 +10576,8 @@
       <c r="F53" s="85"/>
       <c r="G53" s="85"/>
     </row>
-    <row r="54" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="105" t="str">
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A54" s="103" t="str">
         <f>Criteria!$A$53</f>
         <v>CONSULTATION</v>
       </c>
@@ -10598,8 +10598,8 @@
       <c r="F54" s="82"/>
       <c r="G54" s="82"/>
     </row>
-    <row r="55" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="106"/>
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A55" s="105"/>
       <c r="B55" s="46" t="str">
         <f>Criteria!B54</f>
         <v>13.7</v>
@@ -10617,8 +10617,8 @@
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
     </row>
-    <row r="56" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="107"/>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A56" s="104"/>
       <c r="B56" s="84" t="str">
         <f>Criteria!B55</f>
         <v>13.8</v>
@@ -10638,11 +10638,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A54:A56"/>
     <mergeCell ref="A27:A34"/>
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="A22:A23"/>
@@ -10651,6 +10646,11 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A54:A56"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D56">
     <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
@@ -10700,20 +10700,20 @@
       <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.69140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.53515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.69140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="3.84375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="3.07421875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="3.109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="80" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.84375" style="5" customWidth="1"/>
-    <col min="8" max="64" width="9.53515625" style="5"/>
-    <col min="1018" max="1024" width="7.3046875" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" style="5" customWidth="1"/>
+    <col min="8" max="64" width="9.5546875" style="5"/>
+    <col min="1018" max="1024" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="93" t="str">
         <f>Sample!A1</f>
         <v>SIMPLIFIED AUDIT – ASSESSMENT GRID</v>
@@ -10725,7 +10725,7 @@
       <c r="F1" s="93"/>
       <c r="G1" s="93"/>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A2" s="108" t="str">
         <f>CONCATENATE(Sample!B8," : ",Sample!C8)</f>
         <v>Page title 2 : https:///www.example.com/2.html</v>
@@ -10737,7 +10737,7 @@
       <c r="F2" s="108"/>
       <c r="G2" s="108"/>
     </row>
-    <row r="3" spans="1:64" s="49" customFormat="1" ht="57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" s="49" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="90" t="s">
         <v>106</v>
       </c>
@@ -10817,8 +10817,8 @@
       <c r="BK3" s="48"/>
       <c r="BL3" s="48"/>
     </row>
-    <row r="4" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A4" s="105" t="str">
+    <row r="4" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="103" t="str">
         <f>Criteria!$A$3</f>
         <v>IMAGES</v>
       </c>
@@ -10895,8 +10895,8 @@
       <c r="BK4" s="48"/>
       <c r="BL4" s="48"/>
     </row>
-    <row r="5" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A5" s="106"/>
+    <row r="5" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="105"/>
       <c r="B5" s="46" t="str">
         <f>Criteria!B4</f>
         <v>1.2</v>
@@ -10971,8 +10971,8 @@
       <c r="BK5" s="48"/>
       <c r="BL5" s="48"/>
     </row>
-    <row r="6" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="106"/>
+    <row r="6" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A6" s="105"/>
       <c r="B6" s="46" t="str">
         <f>Criteria!B5</f>
         <v>1.3</v>
@@ -11047,8 +11047,8 @@
       <c r="BK6" s="48"/>
       <c r="BL6" s="48"/>
     </row>
-    <row r="7" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="106"/>
+    <row r="7" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A7" s="105"/>
       <c r="B7" s="46" t="str">
         <f>Criteria!B6</f>
         <v>1.4</v>
@@ -11123,8 +11123,8 @@
       <c r="BK7" s="48"/>
       <c r="BL7" s="48"/>
     </row>
-    <row r="8" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
+    <row r="8" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="105"/>
       <c r="B8" s="46" t="str">
         <f>Criteria!B7</f>
         <v>1.5</v>
@@ -11199,8 +11199,8 @@
       <c r="BK8" s="48"/>
       <c r="BL8" s="48"/>
     </row>
-    <row r="9" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A9" s="106"/>
+    <row r="9" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="105"/>
       <c r="B9" s="46" t="str">
         <f>Criteria!B8</f>
         <v>1.6</v>
@@ -11275,8 +11275,8 @@
       <c r="BK9" s="48"/>
       <c r="BL9" s="48"/>
     </row>
-    <row r="10" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A10" s="107"/>
+    <row r="10" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="104"/>
       <c r="B10" s="84" t="str">
         <f>Criteria!B9</f>
         <v>1.7</v>
@@ -11351,7 +11351,7 @@
       <c r="BK10" s="48"/>
       <c r="BL10" s="48"/>
     </row>
-    <row r="11" spans="1:64" s="49" customFormat="1" ht="42.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A11" s="78" t="str">
         <f>Criteria!$A$10</f>
         <v>FRAMES</v>
@@ -11430,8 +11430,8 @@
       <c r="BK11" s="48"/>
       <c r="BL11" s="48"/>
     </row>
-    <row r="12" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A12" s="105" t="str">
+    <row r="12" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="103" t="str">
         <f>Criteria!$A$11</f>
         <v>COLOURS</v>
       </c>
@@ -11509,8 +11509,8 @@
       <c r="BK12" s="48"/>
       <c r="BL12" s="48"/>
     </row>
-    <row r="13" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="107"/>
+    <row r="13" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" s="104"/>
       <c r="B13" s="84" t="str">
         <f>Criteria!B12</f>
         <v>3.2</v>
@@ -11585,8 +11585,8 @@
       <c r="BK13" s="48"/>
       <c r="BL13" s="48"/>
     </row>
-    <row r="14" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="105" t="str">
+    <row r="14" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="103" t="str">
         <f>Criteria!$A$13</f>
         <v>MULTIMEDIA</v>
       </c>
@@ -11664,8 +11664,8 @@
       <c r="BK14" s="48"/>
       <c r="BL14" s="48"/>
     </row>
-    <row r="15" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="106"/>
+    <row r="15" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" s="105"/>
       <c r="B15" s="46" t="str">
         <f>Criteria!B14</f>
         <v>4.2</v>
@@ -11740,8 +11740,8 @@
       <c r="BK15" s="48"/>
       <c r="BL15" s="48"/>
     </row>
-    <row r="16" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="106"/>
+    <row r="16" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A16" s="105"/>
       <c r="B16" s="46" t="str">
         <f>Criteria!B15</f>
         <v>4.3</v>
@@ -11816,8 +11816,8 @@
       <c r="BK16" s="48"/>
       <c r="BL16" s="48"/>
     </row>
-    <row r="17" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A17" s="106"/>
+    <row r="17" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="105"/>
       <c r="B17" s="46" t="str">
         <f>Criteria!B16</f>
         <v>4.4</v>
@@ -11892,8 +11892,8 @@
       <c r="BK17" s="48"/>
       <c r="BL17" s="48"/>
     </row>
-    <row r="18" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A18" s="106"/>
+    <row r="18" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="105"/>
       <c r="B18" s="46" t="str">
         <f>Criteria!B17</f>
         <v>4.8</v>
@@ -11968,8 +11968,8 @@
       <c r="BK18" s="48"/>
       <c r="BL18" s="48"/>
     </row>
-    <row r="19" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A19" s="106"/>
+    <row r="19" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="105"/>
       <c r="B19" s="46" t="str">
         <f>Criteria!B18</f>
         <v>4.9</v>
@@ -12044,8 +12044,8 @@
       <c r="BK19" s="48"/>
       <c r="BL19" s="48"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A20" s="106"/>
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="105"/>
       <c r="B20" s="46" t="str">
         <f>Criteria!B19</f>
         <v>4.10</v>
@@ -12120,8 +12120,8 @@
       <c r="BK20" s="48"/>
       <c r="BL20" s="48"/>
     </row>
-    <row r="21" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A21" s="107"/>
+    <row r="21" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="104"/>
       <c r="B21" s="84" t="str">
         <f>Criteria!B20</f>
         <v>4.11</v>
@@ -12196,8 +12196,8 @@
       <c r="BK21" s="48"/>
       <c r="BL21" s="48"/>
     </row>
-    <row r="22" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A22" s="105" t="s">
+    <row r="22" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="103" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="81" t="str">
@@ -12274,8 +12274,8 @@
       <c r="BK22" s="48"/>
       <c r="BL22" s="48"/>
     </row>
-    <row r="23" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="107"/>
+    <row r="23" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A23" s="104"/>
       <c r="B23" s="84" t="str">
         <f>Criteria!B22</f>
         <v>5.7</v>
@@ -12350,8 +12350,8 @@
       <c r="BK23" s="48"/>
       <c r="BL23" s="48"/>
     </row>
-    <row r="24" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="105" t="str">
+    <row r="24" spans="1:64" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="103" t="str">
         <f>Criteria!$A$23</f>
         <v>LINKS</v>
       </c>
@@ -12429,8 +12429,8 @@
       <c r="BK24" s="48"/>
       <c r="BL24" s="48"/>
     </row>
-    <row r="25" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="107"/>
+    <row r="25" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="104"/>
       <c r="B25" s="84" t="str">
         <f>Criteria!B24</f>
         <v>6.2</v>
@@ -12505,7 +12505,7 @@
       <c r="BK25" s="48"/>
       <c r="BL25" s="48"/>
     </row>
-    <row r="26" spans="1:64" s="49" customFormat="1" ht="41.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="49" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A26" s="78" t="s">
         <v>32</v>
       </c>
@@ -12583,8 +12583,8 @@
       <c r="BK26" s="48"/>
       <c r="BL26" s="48"/>
     </row>
-    <row r="27" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="103" t="s">
+    <row r="27" spans="1:64" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="106" t="s">
         <v>92</v>
       </c>
       <c r="B27" s="81">
@@ -12660,8 +12660,8 @@
       <c r="BK27" s="48"/>
       <c r="BL27" s="48"/>
     </row>
-    <row r="28" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A28" s="95"/>
+    <row r="28" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="98"/>
       <c r="B28" s="46" t="str">
         <f>Criteria!B27</f>
         <v>8.2</v>
@@ -12736,8 +12736,8 @@
       <c r="BK28" s="48"/>
       <c r="BL28" s="48"/>
     </row>
-    <row r="29" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95"/>
+    <row r="29" spans="1:64" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="98"/>
       <c r="B29" s="46" t="str">
         <f>Criteria!B28</f>
         <v>8.3</v>
@@ -12812,8 +12812,8 @@
       <c r="BK29" s="48"/>
       <c r="BL29" s="48"/>
     </row>
-    <row r="30" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A30" s="95"/>
+    <row r="30" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="98"/>
       <c r="B30" s="46" t="str">
         <f>Criteria!B29</f>
         <v>8.4</v>
@@ -12888,8 +12888,8 @@
       <c r="BK30" s="48"/>
       <c r="BL30" s="48"/>
     </row>
-    <row r="31" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="95"/>
+    <row r="31" spans="1:64" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="98"/>
       <c r="B31" s="46" t="str">
         <f>Criteria!B30</f>
         <v>8.5</v>
@@ -12964,8 +12964,8 @@
       <c r="BK31" s="48"/>
       <c r="BL31" s="48"/>
     </row>
-    <row r="32" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="95"/>
+    <row r="32" spans="1:64" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="98"/>
       <c r="B32" s="46" t="str">
         <f>Criteria!B31</f>
         <v>8.6</v>
@@ -13040,8 +13040,8 @@
       <c r="BK32" s="48"/>
       <c r="BL32" s="48"/>
     </row>
-    <row r="33" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A33" s="95"/>
+    <row r="33" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="98"/>
       <c r="B33" s="46" t="str">
         <f>Criteria!B32</f>
         <v>8.7</v>
@@ -13116,8 +13116,8 @@
       <c r="BK33" s="48"/>
       <c r="BL33" s="48"/>
     </row>
-    <row r="34" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A34" s="95"/>
+    <row r="34" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="98"/>
       <c r="B34" s="74" t="str">
         <f>Criteria!B33</f>
         <v>8.8</v>
@@ -13192,8 +13192,8 @@
       <c r="BK34" s="48"/>
       <c r="BL34" s="48"/>
     </row>
-    <row r="35" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A35" s="105" t="str">
+    <row r="35" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="103" t="str">
         <f>Criteria!$A$34</f>
         <v>STRUCTURATION</v>
       </c>
@@ -13271,8 +13271,8 @@
       <c r="BK35" s="48"/>
       <c r="BL35" s="48"/>
     </row>
-    <row r="36" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A36" s="107"/>
+    <row r="36" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="104"/>
       <c r="B36" s="84" t="str">
         <f>Criteria!B35</f>
         <v>9.2</v>
@@ -13347,8 +13347,8 @@
       <c r="BK36" s="48"/>
       <c r="BL36" s="48"/>
     </row>
-    <row r="37" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A37" s="105" t="s">
+    <row r="37" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="103" t="s">
         <v>93</v>
       </c>
       <c r="B37" s="81" t="str">
@@ -13425,8 +13425,8 @@
       <c r="BK37" s="48"/>
       <c r="BL37" s="48"/>
     </row>
-    <row r="38" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A38" s="106"/>
+    <row r="38" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" s="105"/>
       <c r="B38" s="46" t="str">
         <f>Criteria!B37</f>
         <v>10.8</v>
@@ -13501,8 +13501,8 @@
       <c r="BK38" s="48"/>
       <c r="BL38" s="48"/>
     </row>
-    <row r="39" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A39" s="106"/>
+    <row r="39" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="105"/>
       <c r="B39" s="46" t="str">
         <f>Criteria!B38</f>
         <v>10.9</v>
@@ -13577,8 +13577,8 @@
       <c r="BK39" s="48"/>
       <c r="BL39" s="48"/>
     </row>
-    <row r="40" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="106"/>
+    <row r="40" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A40" s="105"/>
       <c r="B40" s="46" t="str">
         <f>Criteria!B39</f>
         <v>10.10</v>
@@ -13653,8 +13653,8 @@
       <c r="BK40" s="48"/>
       <c r="BL40" s="48"/>
     </row>
-    <row r="41" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="107"/>
+    <row r="41" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A41" s="104"/>
       <c r="B41" s="84" t="str">
         <f>Criteria!B40</f>
         <v>10.14</v>
@@ -13729,8 +13729,8 @@
       <c r="BK41" s="48"/>
       <c r="BL41" s="48"/>
     </row>
-    <row r="42" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A42" s="105" t="str">
+    <row r="42" spans="1:64" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="103" t="str">
         <f>Criteria!$A$41</f>
         <v>FORMS</v>
       </c>
@@ -13808,8 +13808,8 @@
       <c r="BK42" s="48"/>
       <c r="BL42" s="48"/>
     </row>
-    <row r="43" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A43" s="106"/>
+    <row r="43" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="105"/>
       <c r="B43" s="46" t="str">
         <f>Criteria!B42</f>
         <v>11.2</v>
@@ -13884,8 +13884,8 @@
       <c r="BK43" s="48"/>
       <c r="BL43" s="48"/>
     </row>
-    <row r="44" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A44" s="106"/>
+    <row r="44" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A44" s="105"/>
       <c r="B44" s="46" t="str">
         <f>Criteria!B43</f>
         <v>11.5</v>
@@ -13960,8 +13960,8 @@
       <c r="BK44" s="48"/>
       <c r="BL44" s="48"/>
     </row>
-    <row r="45" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A45" s="106"/>
+    <row r="45" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A45" s="105"/>
       <c r="B45" s="46" t="str">
         <f>Criteria!B44</f>
         <v>11.6</v>
@@ -14036,8 +14036,8 @@
       <c r="BK45" s="48"/>
       <c r="BL45" s="48"/>
     </row>
-    <row r="46" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A46" s="106"/>
+    <row r="46" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" s="105"/>
       <c r="B46" s="46" t="str">
         <f>Criteria!B45</f>
         <v>11.7</v>
@@ -14112,8 +14112,8 @@
       <c r="BK46" s="48"/>
       <c r="BL46" s="48"/>
     </row>
-    <row r="47" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A47" s="106"/>
+    <row r="47" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A47" s="105"/>
       <c r="B47" s="46" t="str">
         <f>Criteria!B46</f>
         <v>11.9</v>
@@ -14188,8 +14188,8 @@
       <c r="BK47" s="48"/>
       <c r="BL47" s="48"/>
     </row>
-    <row r="48" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A48" s="107"/>
+    <row r="48" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" s="104"/>
       <c r="B48" s="84" t="str">
         <f>Criteria!B47</f>
         <v>11.10</v>
@@ -14264,8 +14264,8 @@
       <c r="BK48" s="48"/>
       <c r="BL48" s="48"/>
     </row>
-    <row r="49" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="105" t="s">
+    <row r="49" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A49" s="103" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="81" t="str">
@@ -14342,8 +14342,8 @@
       <c r="BK49" s="48"/>
       <c r="BL49" s="48"/>
     </row>
-    <row r="50" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A50" s="106"/>
+    <row r="50" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A50" s="105"/>
       <c r="B50" s="46" t="str">
         <f>Criteria!B49</f>
         <v>12.7</v>
@@ -14418,8 +14418,8 @@
       <c r="BK50" s="48"/>
       <c r="BL50" s="48"/>
     </row>
-    <row r="51" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A51" s="106"/>
+    <row r="51" spans="1:64" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="105"/>
       <c r="B51" s="46" t="str">
         <f>Criteria!B50</f>
         <v>12.8</v>
@@ -14494,8 +14494,8 @@
       <c r="BK51" s="48"/>
       <c r="BL51" s="48"/>
     </row>
-    <row r="52" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A52" s="106"/>
+    <row r="52" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A52" s="105"/>
       <c r="B52" s="46" t="str">
         <f>Criteria!B51</f>
         <v>12.9</v>
@@ -14570,8 +14570,8 @@
       <c r="BK52" s="48"/>
       <c r="BL52" s="48"/>
     </row>
-    <row r="53" spans="1:64" s="49" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A53" s="107"/>
+    <row r="53" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A53" s="104"/>
       <c r="B53" s="84" t="str">
         <f>Criteria!B52</f>
         <v>12.11</v>
@@ -14646,8 +14646,8 @@
       <c r="BK53" s="48"/>
       <c r="BL53" s="48"/>
     </row>
-    <row r="54" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="105" t="str">
+    <row r="54" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A54" s="103" t="str">
         <f>Criteria!$A$53</f>
         <v>CONSULTATION</v>
       </c>
@@ -14725,8 +14725,8 @@
       <c r="BK54" s="48"/>
       <c r="BL54" s="48"/>
     </row>
-    <row r="55" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A55" s="106"/>
+    <row r="55" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A55" s="105"/>
       <c r="B55" s="46" t="str">
         <f>Criteria!B54</f>
         <v>13.7</v>
@@ -14801,8 +14801,8 @@
       <c r="BK55" s="48"/>
       <c r="BL55" s="48"/>
     </row>
-    <row r="56" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A56" s="107"/>
+    <row r="56" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A56" s="104"/>
       <c r="B56" s="84" t="str">
         <f>Criteria!B55</f>
         <v>13.8</v>
@@ -14879,12 +14879,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A49:A53"/>
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
@@ -14892,6 +14886,12 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A49:A53"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E56">
     <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
@@ -14941,20 +14941,20 @@
       <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.53515625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.69140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.07421875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="41.3046875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="3.84375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="3.07421875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="79.4609375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.84375" style="5" customWidth="1"/>
-    <col min="8" max="64" width="9.53515625" style="5"/>
-    <col min="1018" max="1024" width="7.3046875" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="3.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="79.44140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" style="5" customWidth="1"/>
+    <col min="8" max="64" width="9.5546875" style="5"/>
+    <col min="1018" max="1024" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:64" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="93" t="str">
         <f>Sample!A1</f>
         <v>SIMPLIFIED AUDIT – ASSESSMENT GRID</v>
@@ -14966,7 +14966,7 @@
       <c r="F1" s="93"/>
       <c r="G1" s="93"/>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A2" s="108" t="str">
         <f>CONCATENATE(Sample!B9," : ",Sample!C9)</f>
         <v>Page title 3 : https:///www.example.com/3.html</v>
@@ -14978,7 +14978,7 @@
       <c r="F2" s="108"/>
       <c r="G2" s="108"/>
     </row>
-    <row r="3" spans="1:64" s="49" customFormat="1" ht="57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" s="49" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="90" t="s">
         <v>106</v>
       </c>
@@ -15058,8 +15058,8 @@
       <c r="BK3" s="48"/>
       <c r="BL3" s="48"/>
     </row>
-    <row r="4" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A4" s="105" t="str">
+    <row r="4" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="103" t="str">
         <f>Criteria!$A$3</f>
         <v>IMAGES</v>
       </c>
@@ -15136,8 +15136,8 @@
       <c r="BK4" s="48"/>
       <c r="BL4" s="48"/>
     </row>
-    <row r="5" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A5" s="106"/>
+    <row r="5" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="105"/>
       <c r="B5" s="46" t="str">
         <f>Criteria!B4</f>
         <v>1.2</v>
@@ -15212,8 +15212,8 @@
       <c r="BK5" s="48"/>
       <c r="BL5" s="48"/>
     </row>
-    <row r="6" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="106"/>
+    <row r="6" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A6" s="105"/>
       <c r="B6" s="46" t="str">
         <f>Criteria!B5</f>
         <v>1.3</v>
@@ -15288,8 +15288,8 @@
       <c r="BK6" s="48"/>
       <c r="BL6" s="48"/>
     </row>
-    <row r="7" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="106"/>
+    <row r="7" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A7" s="105"/>
       <c r="B7" s="46" t="str">
         <f>Criteria!B6</f>
         <v>1.4</v>
@@ -15364,8 +15364,8 @@
       <c r="BK7" s="48"/>
       <c r="BL7" s="48"/>
     </row>
-    <row r="8" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
+    <row r="8" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="105"/>
       <c r="B8" s="46" t="str">
         <f>Criteria!B7</f>
         <v>1.5</v>
@@ -15440,8 +15440,8 @@
       <c r="BK8" s="48"/>
       <c r="BL8" s="48"/>
     </row>
-    <row r="9" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A9" s="106"/>
+    <row r="9" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="105"/>
       <c r="B9" s="46" t="str">
         <f>Criteria!B8</f>
         <v>1.6</v>
@@ -15516,8 +15516,8 @@
       <c r="BK9" s="48"/>
       <c r="BL9" s="48"/>
     </row>
-    <row r="10" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A10" s="107"/>
+    <row r="10" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="104"/>
       <c r="B10" s="84" t="str">
         <f>Criteria!B9</f>
         <v>1.7</v>
@@ -15592,7 +15592,7 @@
       <c r="BK10" s="48"/>
       <c r="BL10" s="48"/>
     </row>
-    <row r="11" spans="1:64" s="49" customFormat="1" ht="42.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.2">
       <c r="A11" s="78" t="str">
         <f>Criteria!$A$10</f>
         <v>FRAMES</v>
@@ -15671,8 +15671,8 @@
       <c r="BK11" s="48"/>
       <c r="BL11" s="48"/>
     </row>
-    <row r="12" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A12" s="105" t="str">
+    <row r="12" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="103" t="str">
         <f>Criteria!$A$11</f>
         <v>COLOURS</v>
       </c>
@@ -15750,8 +15750,8 @@
       <c r="BK12" s="48"/>
       <c r="BL12" s="48"/>
     </row>
-    <row r="13" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="107"/>
+    <row r="13" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" s="104"/>
       <c r="B13" s="84" t="str">
         <f>Criteria!B12</f>
         <v>3.2</v>
@@ -15826,8 +15826,8 @@
       <c r="BK13" s="48"/>
       <c r="BL13" s="48"/>
     </row>
-    <row r="14" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="105" t="str">
+    <row r="14" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="103" t="str">
         <f>Criteria!$A$13</f>
         <v>MULTIMEDIA</v>
       </c>
@@ -15905,8 +15905,8 @@
       <c r="BK14" s="48"/>
       <c r="BL14" s="48"/>
     </row>
-    <row r="15" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="106"/>
+    <row r="15" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" s="105"/>
       <c r="B15" s="46" t="str">
         <f>Criteria!B14</f>
         <v>4.2</v>
@@ -15981,8 +15981,8 @@
       <c r="BK15" s="48"/>
       <c r="BL15" s="48"/>
     </row>
-    <row r="16" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="106"/>
+    <row r="16" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A16" s="105"/>
       <c r="B16" s="46" t="str">
         <f>Criteria!B15</f>
         <v>4.3</v>
@@ -16057,8 +16057,8 @@
       <c r="BK16" s="48"/>
       <c r="BL16" s="48"/>
     </row>
-    <row r="17" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A17" s="106"/>
+    <row r="17" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="105"/>
       <c r="B17" s="46" t="str">
         <f>Criteria!B16</f>
         <v>4.4</v>
@@ -16133,8 +16133,8 @@
       <c r="BK17" s="48"/>
       <c r="BL17" s="48"/>
     </row>
-    <row r="18" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A18" s="106"/>
+    <row r="18" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="105"/>
       <c r="B18" s="46" t="str">
         <f>Criteria!B17</f>
         <v>4.8</v>
@@ -16209,8 +16209,8 @@
       <c r="BK18" s="48"/>
       <c r="BL18" s="48"/>
     </row>
-    <row r="19" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A19" s="106"/>
+    <row r="19" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" s="105"/>
       <c r="B19" s="46" t="str">
         <f>Criteria!B18</f>
         <v>4.9</v>
@@ -16285,8 +16285,8 @@
       <c r="BK19" s="48"/>
       <c r="BL19" s="48"/>
     </row>
-    <row r="20" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A20" s="106"/>
+    <row r="20" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="105"/>
       <c r="B20" s="46" t="str">
         <f>Criteria!B19</f>
         <v>4.10</v>
@@ -16361,8 +16361,8 @@
       <c r="BK20" s="48"/>
       <c r="BL20" s="48"/>
     </row>
-    <row r="21" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A21" s="107"/>
+    <row r="21" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="104"/>
       <c r="B21" s="84" t="str">
         <f>Criteria!B20</f>
         <v>4.11</v>
@@ -16437,8 +16437,8 @@
       <c r="BK21" s="48"/>
       <c r="BL21" s="48"/>
     </row>
-    <row r="22" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A22" s="105" t="s">
+    <row r="22" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="103" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="81" t="str">
@@ -16515,8 +16515,8 @@
       <c r="BK22" s="48"/>
       <c r="BL22" s="48"/>
     </row>
-    <row r="23" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="107"/>
+    <row r="23" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A23" s="104"/>
       <c r="B23" s="84" t="str">
         <f>Criteria!B22</f>
         <v>5.7</v>
@@ -16591,8 +16591,8 @@
       <c r="BK23" s="48"/>
       <c r="BL23" s="48"/>
     </row>
-    <row r="24" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="105" t="str">
+    <row r="24" spans="1:64" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="103" t="str">
         <f>Criteria!$A$23</f>
         <v>LINKS</v>
       </c>
@@ -16670,8 +16670,8 @@
       <c r="BK24" s="48"/>
       <c r="BL24" s="48"/>
     </row>
-    <row r="25" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="107"/>
+    <row r="25" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="104"/>
       <c r="B25" s="84" t="str">
         <f>Criteria!B24</f>
         <v>6.2</v>
@@ -16746,7 +16746,7 @@
       <c r="BK25" s="48"/>
       <c r="BL25" s="48"/>
     </row>
-    <row r="26" spans="1:64" s="49" customFormat="1" ht="41.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="49" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A26" s="78" t="s">
         <v>32</v>
       </c>
@@ -16824,8 +16824,8 @@
       <c r="BK26" s="48"/>
       <c r="BL26" s="48"/>
     </row>
-    <row r="27" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="103" t="s">
+    <row r="27" spans="1:64" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="106" t="s">
         <v>92</v>
       </c>
       <c r="B27" s="81">
@@ -16901,8 +16901,8 @@
       <c r="BK27" s="48"/>
       <c r="BL27" s="48"/>
     </row>
-    <row r="28" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A28" s="95"/>
+    <row r="28" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="98"/>
       <c r="B28" s="46" t="str">
         <f>Criteria!B27</f>
         <v>8.2</v>
@@ -16977,8 +16977,8 @@
       <c r="BK28" s="48"/>
       <c r="BL28" s="48"/>
     </row>
-    <row r="29" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95"/>
+    <row r="29" spans="1:64" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="98"/>
       <c r="B29" s="46" t="str">
         <f>Criteria!B28</f>
         <v>8.3</v>
@@ -17053,8 +17053,8 @@
       <c r="BK29" s="48"/>
       <c r="BL29" s="48"/>
     </row>
-    <row r="30" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A30" s="95"/>
+    <row r="30" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="98"/>
       <c r="B30" s="46" t="str">
         <f>Criteria!B29</f>
         <v>8.4</v>
@@ -17129,8 +17129,8 @@
       <c r="BK30" s="48"/>
       <c r="BL30" s="48"/>
     </row>
-    <row r="31" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="95"/>
+    <row r="31" spans="1:64" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="98"/>
       <c r="B31" s="46" t="str">
         <f>Criteria!B30</f>
         <v>8.5</v>
@@ -17205,8 +17205,8 @@
       <c r="BK31" s="48"/>
       <c r="BL31" s="48"/>
     </row>
-    <row r="32" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="95"/>
+    <row r="32" spans="1:64" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="98"/>
       <c r="B32" s="46" t="str">
         <f>Criteria!B31</f>
         <v>8.6</v>
@@ -17281,8 +17281,8 @@
       <c r="BK32" s="48"/>
       <c r="BL32" s="48"/>
     </row>
-    <row r="33" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A33" s="95"/>
+    <row r="33" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="98"/>
       <c r="B33" s="46" t="str">
         <f>Criteria!B32</f>
         <v>8.7</v>
@@ -17357,8 +17357,8 @@
       <c r="BK33" s="48"/>
       <c r="BL33" s="48"/>
     </row>
-    <row r="34" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A34" s="104"/>
+    <row r="34" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" s="107"/>
       <c r="B34" s="84" t="str">
         <f>Criteria!B33</f>
         <v>8.8</v>
@@ -17433,8 +17433,8 @@
       <c r="BK34" s="48"/>
       <c r="BL34" s="48"/>
     </row>
-    <row r="35" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A35" s="105" t="str">
+    <row r="35" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="103" t="str">
         <f>Criteria!$A$34</f>
         <v>STRUCTURATION</v>
       </c>
@@ -17512,8 +17512,8 @@
       <c r="BK35" s="48"/>
       <c r="BL35" s="48"/>
     </row>
-    <row r="36" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A36" s="107"/>
+    <row r="36" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="104"/>
       <c r="B36" s="84" t="str">
         <f>Criteria!B35</f>
         <v>9.2</v>
@@ -17588,8 +17588,8 @@
       <c r="BK36" s="48"/>
       <c r="BL36" s="48"/>
     </row>
-    <row r="37" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A37" s="105" t="s">
+    <row r="37" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="103" t="s">
         <v>93</v>
       </c>
       <c r="B37" s="81" t="str">
@@ -17666,8 +17666,8 @@
       <c r="BK37" s="48"/>
       <c r="BL37" s="48"/>
     </row>
-    <row r="38" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A38" s="106"/>
+    <row r="38" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" s="105"/>
       <c r="B38" s="46" t="str">
         <f>Criteria!B37</f>
         <v>10.8</v>
@@ -17742,8 +17742,8 @@
       <c r="BK38" s="48"/>
       <c r="BL38" s="48"/>
     </row>
-    <row r="39" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A39" s="106"/>
+    <row r="39" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="105"/>
       <c r="B39" s="46" t="str">
         <f>Criteria!B38</f>
         <v>10.9</v>
@@ -17818,8 +17818,8 @@
       <c r="BK39" s="48"/>
       <c r="BL39" s="48"/>
     </row>
-    <row r="40" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="106"/>
+    <row r="40" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A40" s="105"/>
       <c r="B40" s="46" t="str">
         <f>Criteria!B39</f>
         <v>10.10</v>
@@ -17894,8 +17894,8 @@
       <c r="BK40" s="48"/>
       <c r="BL40" s="48"/>
     </row>
-    <row r="41" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="107"/>
+    <row r="41" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A41" s="104"/>
       <c r="B41" s="84" t="str">
         <f>Criteria!B40</f>
         <v>10.14</v>
@@ -17970,8 +17970,8 @@
       <c r="BK41" s="48"/>
       <c r="BL41" s="48"/>
     </row>
-    <row r="42" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="105" t="str">
+    <row r="42" spans="1:64" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="103" t="str">
         <f>Criteria!$A$41</f>
         <v>FORMS</v>
       </c>
@@ -18049,8 +18049,8 @@
       <c r="BK42" s="48"/>
       <c r="BL42" s="48"/>
     </row>
-    <row r="43" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A43" s="106"/>
+    <row r="43" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="105"/>
       <c r="B43" s="46" t="str">
         <f>Criteria!B42</f>
         <v>11.2</v>
@@ -18125,8 +18125,8 @@
       <c r="BK43" s="48"/>
       <c r="BL43" s="48"/>
     </row>
-    <row r="44" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A44" s="106"/>
+    <row r="44" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A44" s="105"/>
       <c r="B44" s="46" t="str">
         <f>Criteria!B43</f>
         <v>11.5</v>
@@ -18201,8 +18201,8 @@
       <c r="BK44" s="48"/>
       <c r="BL44" s="48"/>
     </row>
-    <row r="45" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A45" s="106"/>
+    <row r="45" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A45" s="105"/>
       <c r="B45" s="46" t="str">
         <f>Criteria!B44</f>
         <v>11.6</v>
@@ -18277,8 +18277,8 @@
       <c r="BK45" s="48"/>
       <c r="BL45" s="48"/>
     </row>
-    <row r="46" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A46" s="106"/>
+    <row r="46" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A46" s="105"/>
       <c r="B46" s="46" t="str">
         <f>Criteria!B45</f>
         <v>11.7</v>
@@ -18353,8 +18353,8 @@
       <c r="BK46" s="48"/>
       <c r="BL46" s="48"/>
     </row>
-    <row r="47" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A47" s="106"/>
+    <row r="47" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A47" s="105"/>
       <c r="B47" s="46" t="str">
         <f>Criteria!B46</f>
         <v>11.9</v>
@@ -18429,8 +18429,8 @@
       <c r="BK47" s="48"/>
       <c r="BL47" s="48"/>
     </row>
-    <row r="48" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A48" s="107"/>
+    <row r="48" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" s="104"/>
       <c r="B48" s="84" t="str">
         <f>Criteria!B47</f>
         <v>11.10</v>
@@ -18505,8 +18505,8 @@
       <c r="BK48" s="48"/>
       <c r="BL48" s="48"/>
     </row>
-    <row r="49" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="105" t="s">
+    <row r="49" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A49" s="103" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="81" t="str">
@@ -18583,8 +18583,8 @@
       <c r="BK49" s="48"/>
       <c r="BL49" s="48"/>
     </row>
-    <row r="50" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A50" s="106"/>
+    <row r="50" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A50" s="105"/>
       <c r="B50" s="46" t="str">
         <f>Criteria!B49</f>
         <v>12.7</v>
@@ -18659,8 +18659,8 @@
       <c r="BK50" s="48"/>
       <c r="BL50" s="48"/>
     </row>
-    <row r="51" spans="1:64" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="106"/>
+    <row r="51" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A51" s="105"/>
       <c r="B51" s="46" t="str">
         <f>Criteria!B50</f>
         <v>12.8</v>
@@ -18735,8 +18735,8 @@
       <c r="BK51" s="48"/>
       <c r="BL51" s="48"/>
     </row>
-    <row r="52" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A52" s="106"/>
+    <row r="52" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A52" s="105"/>
       <c r="B52" s="46" t="str">
         <f>Criteria!B51</f>
         <v>12.9</v>
@@ -18811,8 +18811,8 @@
       <c r="BK52" s="48"/>
       <c r="BL52" s="48"/>
     </row>
-    <row r="53" spans="1:64" s="49" customFormat="1" ht="58" x14ac:dyDescent="0.3">
-      <c r="A53" s="107"/>
+    <row r="53" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A53" s="104"/>
       <c r="B53" s="84" t="str">
         <f>Criteria!B52</f>
         <v>12.11</v>
@@ -18887,8 +18887,8 @@
       <c r="BK53" s="48"/>
       <c r="BL53" s="48"/>
     </row>
-    <row r="54" spans="1:64" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="105" t="str">
+    <row r="54" spans="1:64" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A54" s="103" t="str">
         <f>Criteria!$A$53</f>
         <v>CONSULTATION</v>
       </c>
@@ -18966,8 +18966,8 @@
       <c r="BK54" s="48"/>
       <c r="BL54" s="48"/>
     </row>
-    <row r="55" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A55" s="106"/>
+    <row r="55" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A55" s="105"/>
       <c r="B55" s="46" t="str">
         <f>Criteria!B54</f>
         <v>13.7</v>
@@ -19042,8 +19042,8 @@
       <c r="BK55" s="48"/>
       <c r="BL55" s="48"/>
     </row>
-    <row r="56" spans="1:64" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.3">
-      <c r="A56" s="107"/>
+    <row r="56" spans="1:64" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A56" s="104"/>
       <c r="B56" s="84" t="str">
         <f>Criteria!B55</f>
         <v>13.8</v>
@@ -19120,12 +19120,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A49:A53"/>
     <mergeCell ref="A14:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
@@ -19133,6 +19127,12 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A49:A53"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:D56">
     <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
